--- a/statistics/stats.xlsx
+++ b/statistics/stats.xlsx
@@ -8,27 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliatortosa/Documents/TFG/Code/AlgorithmAnalysis/statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{08E816B9-94F9-1D48-BE58-91C52658B0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B51E57D6-72E9-E149-B8B2-9D06E5B55BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{35D7B741-9824-8449-880C-2CA5D85E4D9C}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{35D7B741-9824-8449-880C-2CA5D85E4D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="yinfft_stats" sheetId="4" r:id="rId1"/>
     <sheet name="yin_stats" sheetId="3" r:id="rId2"/>
     <sheet name="melodia_stats" sheetId="2" r:id="rId3"/>
     <sheet name="hps_stats" sheetId="1" r:id="rId4"/>
+    <sheet name="Stats" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hps_stats!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">melodia_stats!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">yin_stats!$A$1:$E$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Stats!$G$2:$L$9</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="140" uniqueCount="35">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="185" uniqueCount="43">
   <si>
     <t>Audio Fragment</t>
   </si>
@@ -133,13 +151,40 @@
   </si>
   <si>
     <t>sequenza_sixth_fragment_robison</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>PitchYinFFT</t>
+  </si>
+  <si>
+    <t>PitchYin</t>
+  </si>
+  <si>
+    <t>PitchMelodia</t>
+  </si>
+  <si>
+    <t>PitchHPS</t>
+  </si>
+  <si>
+    <t>Stdev</t>
+  </si>
+  <si>
+    <t>RTF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -274,8 +319,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,8 +506,44 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF156082"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E7F5"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="30">
     <border>
       <start/>
       <end/>
@@ -571,6 +658,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color theme="1"/>
+      </start>
+      <end style="thin">
+        <color theme="1"/>
+      </end>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="thin">
+        <color theme="1"/>
+      </end>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color theme="1"/>
+      </start>
+      <end style="thin">
+        <color theme="1"/>
+      </end>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="thin">
+        <color theme="1"/>
+      </end>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="thin">
+        <color theme="1"/>
+      </end>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color theme="1"/>
+      </start>
+      <end/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -616,8 +961,71 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -663,8 +1071,105 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <start/>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC0E7F5"/>
+      <color rgb="FF156082"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -674,6 +1179,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0735E96-1D55-AF4F-8675-1103B0B90AEB}" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:E31" xr:uid="{F0735E96-1D55-AF4F-8675-1103B0B90AEB}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{173EF5D9-3D06-934D-94FF-D1A8C7959B4A}" name="Audio Fragment" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{941CFE92-AB18-D84F-AD54-C16E3FCF4D5D}" name="Voicing Recall" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C8385A02-D96F-7746-BF8F-EEBCA3C30612}" name="Voicing False Alarm" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E2589D5E-230E-A24E-9302-5DFE0DD81287}" name="Raw Pitch Accuracy" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{B4A33231-42C5-514A-B796-DA1ECB3BAC7C}" name="Overall Accuracy" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -995,541 +1514,552 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB162D68-AE29-6944-8CBA-D6047468556D}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>0.997</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0.55800000000000005</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>0.995</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.57499999999999996</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>0.997</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.6</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>0.997</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
         <v>0.995</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.61599999999999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.59199999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
         <v>0.93300000000000005</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0.504</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.503</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
         <v>0.995</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0.47399999999999998</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.54600000000000004</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
         <v>0.998</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
         <v>0.998</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.23899999999999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.217</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
         <v>0.90500000000000003</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.879</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0.76</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
         <v>0.999</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.92800000000000005</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>0.76600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
         <v>0.999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>0.84599999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
         <v>0.999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>0.89900000000000002</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
         <v>0.999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>0.33</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
         <v>0.998</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>0.872</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>0.83299999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
         <v>0.998</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>0.746</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>0.68600000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
         <v>0.999</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>0.84499999999999997</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
         <v>0.55700000000000005</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
         <v>0.376</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>0.313</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>0.79300000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
         <v>0.999</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>0.91800000000000004</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>0.77200000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
         <v>0.83699999999999997</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
         <v>0.999</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>0.65200000000000002</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
         <v>0.88300000000000001</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
         <v>0.999</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>0.85499999999999998</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>0.77</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
         <v>0.999</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>0.63600000000000001</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
         <v>0.999</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>0.59799999999999998</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
         <v>0.72099999999999997</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
         <v>0.999</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>0.221</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>0.182</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1538,1623 +2068,2089 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A32" sqref="A32:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>0.997</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>0.50700000000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>0.48499999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
         <v>0.995</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>0.56499999999999995</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
         <v>0.997</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>0.53900000000000003</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
         <v>0.997</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>2.7E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
         <v>0.995</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>0.57299999999999995</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
         <v>0.93300000000000005</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>0.42099999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>0.42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
         <v>0.995</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>0.48499999999999999</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>0.47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
         <v>0.99399999999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>0.56100000000000005</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
         <v>0.998</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
         <v>0.998</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>0.23699999999999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>0.216</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
         <v>0.90500000000000003</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>0.84</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>0.72699999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
         <v>0.999</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
         <v>0.999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
         <v>0.999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>0.88600000000000001</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>0.73899999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
         <v>0.999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>0.30099999999999999</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
         <v>0.998</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>0.76700000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
         <v>0.998</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>0.747</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>0.68700000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
         <v>0.999</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>0.752</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
         <v>0.54800000000000004</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
         <v>0.35799999999999998</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>0.29799999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
         <v>0.89</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>0.78400000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
         <v>0.999</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>0.92200000000000004</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
         <v>0.85399999999999998</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
         <v>0.999</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>0.69299999999999995</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
         <v>0.94699999999999995</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <v>0.78400000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
         <v>0.999</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <v>0.85499999999999998</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
         <v>0.77100000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
         <v>0.999</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>0.66700000000000004</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
         <v>0.999</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>0.59899999999999998</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <v>0.51</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
         <v>0.63700000000000001</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
         <v>0.999</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>0.24199999999999999</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>0.19800000000000001</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{33734653-9ED5-C249-9B65-DCAAFF274A67}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B934132F-E8F7-9F4D-AF37-DA0C8AC12E73}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B32" sqref="B32:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>0.82199999999999995</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>0.68899999999999995</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>0.69299999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>0.84099999999999997</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>0.184</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>0.74399999999999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>0.746</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>0.82399999999999995</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>0.72799999999999998</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>0.73</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>0.81599999999999995</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>0.87</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>0.75700000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>0.76700000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>0.64900000000000002</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>0.65100000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>0.85199999999999998</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>0.52200000000000002</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>0.625</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>0.62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>0.78700000000000003</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>0.152</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>0.70899999999999996</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>0.71299999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>0.84499999999999997</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>0.96299999999999997</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>0.82699999999999996</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>0.86899999999999999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>0.223</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>0.215</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>0.96599999999999997</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>0.92800000000000005</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>0.90300000000000002</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>0.877</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>0.89800000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>0.95099999999999996</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>0.91800000000000004</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>0.95299999999999996</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>0.108</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>0.91400000000000003</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>0.91</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>0.90200000000000002</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>0.25700000000000001</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>0.17899999999999999</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>0.24399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>0.67800000000000005</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>0.57299999999999995</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>0.59199999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>0.88900000000000001</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>0.44600000000000001</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>0.66700000000000004</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>0.90100000000000002</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>0.23200000000000001</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>0.81599999999999995</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>0.81200000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>0.80100000000000005</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>0.57199999999999995</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>0.90100000000000002</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>0.71699999999999997</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>0.29499999999999998</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>0.29299999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>0.97199999999999998</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>0.44800000000000001</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>0.88200000000000001</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>0.84299999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>0.746</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>0.56299999999999994</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>0.69899999999999995</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>0.755</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>0.71399999999999997</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>0.72199999999999998</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>0.86799999999999999</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>0.58399999999999996</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>0.96499999999999997</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>0.997</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>0.49199999999999999</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>0.80800000000000005</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <v>0.64100000000000001</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
         <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>0.84099999999999997</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>0.70199999999999996</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>0.69399999999999995</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>0.64300000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>0.66500000000000004</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>0.80300000000000005</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>0.50800000000000001</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>0.73599999999999999</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>0.32200000000000001</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>0.52900000000000003</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>0.76700000000000002</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
         <v>0.26600000000000001</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>0.17899999999999999</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>0.27900000000000003</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{B934132F-E8F7-9F4D-AF37-DA0C8AC12E73}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0EB030-7576-8B4F-A3B3-00C30A887AB6}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B32" sqref="B32:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>0.997</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>0.502</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>0.48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
         <v>0.995</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>0.47099999999999997</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
         <v>0.997</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>0.70599999999999996</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>0.67400000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
         <v>0.997</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>0.01</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
         <v>0.995</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>0.60599999999999998</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>0.58199999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
         <v>0.93300000000000005</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>0.58799999999999997</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
         <v>0.995</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>0.51900000000000002</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>0.502</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
         <v>0.99399999999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
         <v>0.998</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>2E-3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
         <v>0.998</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>0.214</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
         <v>0.90500000000000003</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>0.79500000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
         <v>0.999</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>0.81699999999999995</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>0.67400000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
         <v>0.999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>0.84899999999999998</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>0.76600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
         <v>0.999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>0.83199999999999996</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>0.69399999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
         <v>0.999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
         <v>0.998</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>0.80600000000000005</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>0.77</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
         <v>0.998</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>0.67700000000000005</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>0.623</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
         <v>0.999</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>0.82899999999999996</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>0.754</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
         <v>0.49199999999999999</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
         <v>0.55200000000000005</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>0.46</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
         <v>0.82299999999999995</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
         <v>0.999</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>0.85399999999999998</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>0.71799999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
         <v>0.81599999999999995</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
         <v>0.999</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>0.56399999999999995</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
         <v>0.873</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <v>0.72299999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
         <v>0.999</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <v>0.77100000000000002</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
         <v>0.69499999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
         <v>0.999</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>0.56899999999999995</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>0.495</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
         <v>0.999</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>0.61899999999999999</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
         <v>0.54800000000000004</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
         <v>0.999</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>0.23</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>0.189</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{4B0EB030-7576-8B4F-A3B3-00C30A887AB6}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ECD6C3-44A9-1345-9E7F-55D6FC01B860}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" customWidth="1"/>
+    <col min="9" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="9">
+        <f>AVERAGE(yinfft_stats!B2:B31)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <f>AVERAGE(yinfft_stats!C2:C31)</f>
+        <v>0.99296666666666633</v>
+      </c>
+      <c r="D3" s="9">
+        <f>AVERAGE(yinfft_stats!D2:D31)</f>
+        <v>0.62516666666666665</v>
+      </c>
+      <c r="E3" s="9">
+        <f>AVERAGE(yinfft_stats!E2:E31)</f>
+        <v>0.55063333333333331</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="23" t="str">
+        <f>""&amp;TEXT(B3,"0,000")&amp;" ± "&amp;TEXT(B4,"0,000")&amp;""</f>
+        <v>1,000 ± 0,000</v>
+      </c>
+      <c r="J3" s="23" t="str">
+        <f>""&amp;TEXT(B8,"0,000")&amp;" ± "&amp;TEXT(B9,"0,000")&amp;""</f>
+        <v>1,000 ± 0,000</v>
+      </c>
+      <c r="K3" s="23" t="str">
+        <f>""&amp;TEXT(B13,"0,000")&amp;" ± "&amp;TEXT(B14,"0,000")&amp;""</f>
+        <v>0,841 ± 0,081</v>
+      </c>
+      <c r="L3" s="23" t="str">
+        <f>""&amp;TEXT(B18,"0,000")&amp;" ± "&amp;TEXT(B19,"0,000")&amp;""</f>
+        <v>1,000 ± 0,000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="10">
+        <f>STDEV(yinfft_stats!B2:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <f>STDEV(yinfft_stats!C2:C31)</f>
+        <v>2.0506489020649603E-2</v>
+      </c>
+      <c r="D4" s="10">
+        <f>STDEV(yinfft_stats!D2:D31)</f>
+        <v>0.26414887173104046</v>
+      </c>
+      <c r="E4" s="10">
+        <f>STDEV(yinfft_stats!E2:E31)</f>
+        <v>0.22727705761809824</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="23" t="str">
+        <f>""&amp;TEXT(C3,"0,000")&amp;" ± "&amp;TEXT(C4,"0,000")&amp;""</f>
+        <v>0,993 ± 0,021</v>
+      </c>
+      <c r="J4" s="23" t="str">
+        <f>""&amp;TEXT(C8,"0,000")&amp;" ± "&amp;TEXT(C9,"0,000")&amp;""</f>
+        <v>0,993 ± 0,021</v>
+      </c>
+      <c r="K4" s="23" t="str">
+        <f>""&amp;TEXT(C13,"0,000")&amp;" ± "&amp;TEXT(C14,"0,000")&amp;""</f>
+        <v>0,350 ± 0,320</v>
+      </c>
+      <c r="L4" s="23" t="str">
+        <f>""&amp;TEXT(C18,"0,000")&amp;" ± "&amp;TEXT(C19,"0,000")&amp;""</f>
+        <v>0,993 ± 0,021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="23" t="str">
+        <f>""&amp;TEXT(D3,"0,000")&amp;" ± "&amp;TEXT(D4,"0,000")&amp;""</f>
+        <v>0,625 ± 0,264</v>
+      </c>
+      <c r="J5" s="23" t="str">
+        <f>""&amp;TEXT(D8,"0,000")&amp;" ± "&amp;TEXT(D9,"0,000")&amp;""</f>
+        <v>0,612 ± 0,266</v>
+      </c>
+      <c r="K5" s="23" t="str">
+        <f>""&amp;TEXT(D13,"0,000")&amp;" ± "&amp;TEXT(D14,"0,000")&amp;""</f>
+        <v>0,591 ± 0,259</v>
+      </c>
+      <c r="L5" s="23" t="str">
+        <f>""&amp;TEXT(D18,"0,000")&amp;" ± "&amp;TEXT(D19,"0,000")&amp;""</f>
+        <v>0,600 ± 0,249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="G6" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="23" t="str">
+        <f>""&amp;TEXT(E3,"0,000")&amp;" ± "&amp;TEXT(E4,"0,000")&amp;""</f>
+        <v>0,551 ± 0,227</v>
+      </c>
+      <c r="J6" s="23" t="str">
+        <f>""&amp;TEXT(E8,"0,000")&amp;" ± "&amp;TEXT(E9,"0,000")&amp;""</f>
+        <v>0,538 ± 0,226</v>
+      </c>
+      <c r="K6" s="23" t="str">
+        <f>""&amp;TEXT(E13,"0,000")&amp;" ± "&amp;TEXT(E14,"0,000")&amp;""</f>
+        <v>0,588 ± 0,249</v>
+      </c>
+      <c r="L6" s="23" t="str">
+        <f>""&amp;TEXT(E18,"0,000")&amp;" ± "&amp;TEXT(E19,"0,000")&amp;""</f>
+        <v>0,529 ± 0,217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="9">
+        <f>AVERAGE(yin_stats!B2:B31)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <f>AVERAGE(yin_stats!C2:C31)</f>
+        <v>0.99296666666666633</v>
+      </c>
+      <c r="D8" s="9">
+        <f>AVERAGE(yin_stats!D2:D31)</f>
+        <v>0.61226666666666674</v>
+      </c>
+      <c r="E8" s="9">
+        <f>AVERAGE(yin_stats!E2:E31)</f>
+        <v>0.53816666666666679</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="10">
+        <f>STDEV(yin_stats!B2:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <f>STDEV(yin_stats!C2:C31)</f>
+        <v>2.0506489020649603E-2</v>
+      </c>
+      <c r="D9" s="10">
+        <f>STDEV(yin_stats!D2:D31)</f>
+        <v>0.26575084692937112</v>
+      </c>
+      <c r="E9" s="10">
+        <f>STDEV(yin_stats!E2:E31)</f>
+        <v>0.22601374436896068</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="23">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J9" s="23">
+        <v>3.6669999999999998</v>
+      </c>
+      <c r="K9" s="23">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L9" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="9">
+        <f>AVERAGE(melodia_stats!B2:B31)</f>
+        <v>0.84146666666666659</v>
+      </c>
+      <c r="C13" s="9">
+        <f>AVERAGE(melodia_stats!C2:C31)</f>
+        <v>0.34970000000000001</v>
+      </c>
+      <c r="D13" s="9">
+        <f>AVERAGE(melodia_stats!D2:D31)</f>
+        <v>0.5905999999999999</v>
+      </c>
+      <c r="E13" s="9">
+        <f>AVERAGE(melodia_stats!E2:E31)</f>
+        <v>0.58813333333333317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="10">
+        <f>STDEV(melodia_stats!B2:B31)</f>
+        <v>8.1265734108724341E-2</v>
+      </c>
+      <c r="C14" s="10">
+        <f>STDEV(melodia_stats!C2:C31)</f>
+        <v>0.31979855189338097</v>
+      </c>
+      <c r="D14" s="10">
+        <f>STDEV(melodia_stats!D2:D31)</f>
+        <v>0.25924939397395336</v>
+      </c>
+      <c r="E14" s="10">
+        <f>STDEV(melodia_stats!E2:E31)</f>
+        <v>0.24889600838202705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="9">
+        <f>AVERAGE(hps_stats!B2:B31)</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="9">
+        <f>AVERAGE(hps_stats!C2:C31)</f>
+        <v>0.99296666666666633</v>
+      </c>
+      <c r="D18" s="9">
+        <f>AVERAGE(hps_stats!D2:D31)</f>
+        <v>0.59996666666666665</v>
+      </c>
+      <c r="E18" s="9">
+        <f>AVERAGE(hps_stats!E2:E31)</f>
+        <v>0.52896666666666659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="16">
+        <f>STDEV(hps_stats!B2:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
+        <f>STDEV(hps_stats!C2:C31)</f>
+        <v>2.0506489020649603E-2</v>
+      </c>
+      <c r="D19" s="16">
+        <f>STDEV(hps_stats!D2:D31)</f>
+        <v>0.24943003764214314</v>
+      </c>
+      <c r="E19" s="16">
+        <f>STDEV(hps_stats!E2:E31)</f>
+        <v>0.21722409902080941</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/statistics/stats.xlsx
+++ b/statistics/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliatortosa/Documents/TFG/Code/AlgorithmAnalysis/statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B51E57D6-72E9-E149-B8B2-9D06E5B55BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1ABD9A46-A6C0-5648-AEC2-628AF4F21A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{35D7B741-9824-8449-880C-2CA5D85E4D9C}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hps_stats!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">melodia_stats!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">yin_stats!$A$1:$E$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Stats!$G$2:$L$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Stats!$H$2:$M$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="185" uniqueCount="43">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="190" uniqueCount="43">
   <si>
     <t>Audio Fragment</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Mean</t>
   </si>
   <si>
-    <t>Standard Deviation</t>
-  </si>
-  <si>
     <t>PitchYinFFT</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>RTF</t>
+  </si>
+  <si>
+    <t>Raw Chroma Accuracy</t>
   </si>
 </sst>
 </file>
@@ -326,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,12 +520,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF156082"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC0E7F5"/>
         <bgColor theme="4"/>
       </patternFill>
@@ -543,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="36">
     <border>
       <start/>
       <end/>
@@ -677,44 +671,11 @@
       <start style="thin">
         <color indexed="64"/>
       </start>
-      <end/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <start/>
       <end style="thin">
         <color indexed="64"/>
       </end>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -916,6 +877,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -961,70 +1031,77 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="37" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="38" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="38" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1072,6 +1149,19 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <start style="thin">
@@ -1149,19 +1239,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1182,14 +1259,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0735E96-1D55-AF4F-8675-1103B0B90AEB}" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:E31" xr:uid="{F0735E96-1D55-AF4F-8675-1103B0B90AEB}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{173EF5D9-3D06-934D-94FF-D1A8C7959B4A}" name="Audio Fragment" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{941CFE92-AB18-D84F-AD54-C16E3FCF4D5D}" name="Voicing Recall" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C8385A02-D96F-7746-BF8F-EEBCA3C30612}" name="Voicing False Alarm" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{E2589D5E-230E-A24E-9302-5DFE0DD81287}" name="Raw Pitch Accuracy" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{B4A33231-42C5-514A-B796-DA1ECB3BAC7C}" name="Overall Accuracy" dataDxfId="0"/>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0735E96-1D55-AF4F-8675-1103B0B90AEB}" name="Table1" displayName="Table1" ref="A1:F31" totalsRowShown="0" tableBorderDxfId="6">
+  <autoFilter ref="A1:F31" xr:uid="{F0735E96-1D55-AF4F-8675-1103B0B90AEB}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{173EF5D9-3D06-934D-94FF-D1A8C7959B4A}" name="Audio Fragment" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{941CFE92-AB18-D84F-AD54-C16E3FCF4D5D}" name="Voicing Recall" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C8385A02-D96F-7746-BF8F-EEBCA3C30612}" name="Voicing False Alarm" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{E2589D5E-230E-A24E-9302-5DFE0DD81287}" name="Raw Pitch Accuracy" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B4A33231-42C5-514A-B796-DA1ECB3BAC7C}" name="Raw Chroma Accuracy" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{6F5BE0DC-E59B-1041-BDBC-9D0997485503}" name="Overall Accuracy" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1512,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB162D68-AE29-6944-8CBA-D6047468556D}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection sqref="A1:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1527,530 +1605,623 @@
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0.997</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>0.55800000000000005</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
+        <v>0.65</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.53400000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0.995</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>0.57499999999999996</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>0.997</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>0.6</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0.997</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>0.995</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>0.61599999999999999</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
+        <v>0.747</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>0.93300000000000005</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>0.504</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.503</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>0.995</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>0.47399999999999998</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>0.99399999999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>0.54600000000000004</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>0.998</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>1.2E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F10" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>0.998</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>0.23899999999999999</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.217</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>0.90500000000000003</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>0.879</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>0.999</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>0.92800000000000005</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>0.999</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="F14" s="1">
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>0.999</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>0.89900000000000002</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="F15" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>0.999</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>0.33</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>0.998</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>0.872</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="F17" s="1">
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>0.998</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>0.746</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="F18" s="1">
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>0.999</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>0.84499999999999997</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>0.55700000000000005</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="F20" s="1">
         <v>0.48199999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>0.376</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
+        <v>0.378</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.313</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>0.999</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>0.91800000000000004</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>0.83699999999999997</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
+        <v>0.9</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>0.999</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>0.65200000000000002</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="F25" s="1">
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>0.88300000000000001</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="F26" s="1">
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>0.999</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>0.85499999999999998</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="F27" s="1">
         <v>0.77</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>0.999</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>0.63600000000000001</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="F28" s="1">
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>0.999</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>0.59799999999999998</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F29" s="1">
         <v>0.50900000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>0.72099999999999997</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="F30" s="1">
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>0.999</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>0.221</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="F31" s="1">
         <v>0.182</v>
       </c>
     </row>
@@ -2065,10 +2236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33734653-9ED5-C249-9B65-DCAAFF274A67}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD33"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2080,530 +2251,623 @@
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
         <v>0.997</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="21">
         <v>0.50700000000000001</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="21">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="F2" s="27">
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="22">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22">
         <v>0.995</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="22">
         <v>0.56499999999999995</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="22">
+        <v>0.628</v>
+      </c>
+      <c r="F3" s="29">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
         <v>0.997</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="21">
         <v>0.53900000000000003</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="21">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F4" s="27">
         <v>0.51500000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22">
         <v>0.997</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="22">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="22">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F5" s="29">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
         <v>0.995</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="21">
         <v>0.57299999999999995</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="21">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="F6" s="27">
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="22">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22">
         <v>0.93300000000000005</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="22">
         <v>0.42099999999999999</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="22">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="F7" s="29">
         <v>0.42</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="21">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21">
         <v>0.995</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="21">
         <v>0.48499999999999999</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="21">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F8" s="27">
         <v>0.47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="22">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22">
         <v>0.99399999999999999</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="22">
         <v>0.56100000000000005</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="22">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F9" s="29">
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
         <v>0.998</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="21">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F10" s="27">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="22">
+        <v>1</v>
+      </c>
+      <c r="C11" s="22">
         <v>0.998</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="22">
         <v>0.23699999999999999</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="F11" s="29">
         <v>0.216</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="21">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21">
         <v>0.90500000000000003</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="21">
         <v>0.84</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="21">
+        <v>0.877</v>
+      </c>
+      <c r="F12" s="27">
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="22">
+        <v>1</v>
+      </c>
+      <c r="C13" s="22">
         <v>0.999</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="22">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="22">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="F13" s="29">
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="21">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21">
         <v>0.999</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="21">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="21">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="F14" s="27">
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="22">
+        <v>1</v>
+      </c>
+      <c r="C15" s="22">
         <v>0.999</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="22">
         <v>0.88600000000000001</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="22">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="F15" s="29">
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="21">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21">
         <v>0.999</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="21">
         <v>0.30099999999999999</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="21">
+        <v>0.317</v>
+      </c>
+      <c r="F16" s="27">
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="22">
+        <v>1</v>
+      </c>
+      <c r="C17" s="22">
         <v>0.998</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="22">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="22">
+        <v>0.871</v>
+      </c>
+      <c r="F17" s="29">
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="21">
+        <v>1</v>
+      </c>
+      <c r="C18" s="21">
         <v>0.998</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="21">
         <v>0.747</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="F18" s="27">
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="22">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22">
         <v>0.999</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="22">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="22">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="F19" s="29">
         <v>0.752</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="B20" s="21">
+        <v>1</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21">
         <v>0.54800000000000004</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="21">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="F20" s="27">
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="B21" s="22">
+        <v>1</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22">
         <v>0.35799999999999998</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="22">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F21" s="29">
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="B22" s="21">
+        <v>1</v>
+      </c>
+      <c r="C22" s="21">
+        <v>1</v>
+      </c>
+      <c r="D22" s="21">
         <v>0.89</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="21">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="F22" s="27">
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B23" s="22">
+        <v>1</v>
+      </c>
+      <c r="C23" s="22">
         <v>0.999</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="22">
         <v>0.92200000000000004</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="22">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F23" s="29">
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="B24" s="21">
+        <v>1</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21">
         <v>0.85399999999999998</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="21">
+        <v>0.88</v>
+      </c>
+      <c r="F24" s="27">
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25" s="22">
+        <v>1</v>
+      </c>
+      <c r="C25" s="22">
         <v>0.999</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="22">
         <v>0.69299999999999995</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="22">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="F25" s="29">
         <v>0.58499999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="B26" s="21">
+        <v>1</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1</v>
+      </c>
+      <c r="D26" s="21">
         <v>0.94699999999999995</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="21">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="F26" s="27">
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="6">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+      <c r="C27" s="22">
         <v>0.999</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="22">
         <v>0.85499999999999998</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="22">
+        <v>0.89</v>
+      </c>
+      <c r="F27" s="29">
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="B28" s="21">
+        <v>1</v>
+      </c>
+      <c r="C28" s="21">
         <v>0.999</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="21">
         <v>0.66700000000000004</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="21">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="F28" s="27">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="B29" s="22">
+        <v>1</v>
+      </c>
+      <c r="C29" s="22">
         <v>0.999</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="22">
         <v>0.59899999999999998</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="22">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="F29" s="29">
         <v>0.51</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="B30" s="21">
+        <v>1</v>
+      </c>
+      <c r="C30" s="21">
+        <v>1</v>
+      </c>
+      <c r="D30" s="21">
         <v>0.63700000000000001</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="21">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="F30" s="27">
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="6">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B31" s="31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="31">
         <v>0.999</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="31">
         <v>0.24199999999999999</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="31">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F31" s="32">
         <v>0.19800000000000001</v>
       </c>
     </row>
@@ -2616,556 +2880,632 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B934132F-E8F7-9F4D-AF37-DA0C8AC12E73}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:E33"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>0.82199999999999995</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2">
         <v>0.68899999999999995</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="F2">
         <v>0.69299999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>0.84099999999999997</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>0.184</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>0.74399999999999999</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
+        <v>0.748</v>
+      </c>
+      <c r="F3">
         <v>0.746</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>0.82399999999999995</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>0.72799999999999998</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
+        <v>0.74</v>
+      </c>
+      <c r="F4">
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>0.81599999999999995</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F5">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>0.87</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>0.75700000000000001</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="F6">
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>0.64900000000000002</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="F7">
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>0.85199999999999998</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>0.52200000000000002</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>0.625</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
+        <v>0.625</v>
+      </c>
+      <c r="F8">
         <v>0.62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>0.78700000000000003</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>0.152</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>0.70899999999999996</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
+        <v>0.71</v>
+      </c>
+      <c r="F9">
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>0.84499999999999997</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>0.96299999999999997</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F10">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>0.82699999999999996</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>0.86899999999999999</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>0.223</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F11">
         <v>0.215</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>0.96599999999999997</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>0.92800000000000005</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F12">
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>0.90300000000000002</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>0.877</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
+        <v>0.877</v>
+      </c>
+      <c r="F13">
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>0.95099999999999996</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14">
         <v>0.91800000000000004</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F14">
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>0.95299999999999996</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>0.108</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>0.91400000000000003</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
+        <v>0.92</v>
+      </c>
+      <c r="F15">
         <v>0.91</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>0.90200000000000002</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>0.25700000000000001</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16">
         <v>0.17899999999999999</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16">
+        <v>0.188</v>
+      </c>
+      <c r="F16">
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>0.67800000000000005</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>0.57299999999999995</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="F17">
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>0.88900000000000001</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <v>0.44600000000000001</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18">
         <v>0.66700000000000004</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="F18">
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>0.90100000000000002</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>0.23200000000000001</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>0.81599999999999995</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="F19">
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>0.80100000000000005</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <v>0.57199999999999995</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="F20">
         <v>0.46100000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>0.90100000000000002</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <v>0.71699999999999997</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21">
         <v>0.29499999999999998</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F21">
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>0.97199999999999998</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22">
         <v>0.44800000000000001</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22">
         <v>0.88200000000000001</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="F22">
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>0.746</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23">
         <v>0.56299999999999994</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>0.69899999999999995</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="F23">
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>0.755</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24">
         <v>0.71399999999999997</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24">
         <v>0.72199999999999998</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24">
+        <v>0.73</v>
+      </c>
+      <c r="F24">
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25">
         <v>0.86799999999999999</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>0.58399999999999996</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="F25">
         <v>0.63800000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
         <v>0.96499999999999997</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26">
         <v>0.997</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26">
         <v>0.49199999999999999</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26">
+        <v>0.91</v>
+      </c>
+      <c r="F26">
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>0.80800000000000005</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27">
         <v>0.64100000000000001</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="F27">
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <v>0.84099999999999997</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28">
         <v>0.70199999999999996</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28">
         <v>0.69399999999999995</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F28">
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>0.66500000000000004</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29">
         <v>0.80300000000000005</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29">
         <v>0.50800000000000001</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="F29">
         <v>0.46100000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30">
         <v>0.73599999999999999</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30">
         <v>0.32200000000000001</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30">
         <v>0.52900000000000003</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F30">
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31">
         <v>0.76700000000000002</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31">
         <v>0.26600000000000001</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31">
         <v>0.17899999999999999</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F31">
         <v>0.27900000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3177,556 +3517,632 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0EB030-7576-8B4F-A3B3-00C30A887AB6}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:E33"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0.997</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2">
         <v>0.502</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="F2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0.995</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>0.47099999999999997</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="F3">
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>0.997</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>0.70599999999999996</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="F4">
         <v>0.67400000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0.997</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>0.01</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>0.995</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>0.60599999999999998</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="F6">
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>0.93300000000000005</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>0.58799999999999997</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="F7">
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>0.995</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>0.51900000000000002</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F8">
         <v>0.502</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>0.99399999999999999</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
+        <v>0.751</v>
+      </c>
+      <c r="F9">
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>0.998</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>2E-3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F10">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>0.998</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>0.214</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F11">
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>0.90500000000000003</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="F12">
         <v>0.79500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>0.999</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>0.81699999999999995</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="F13">
         <v>0.67400000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>0.999</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14">
         <v>0.84899999999999998</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="F14">
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>0.999</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>0.83199999999999996</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="F15">
         <v>0.69399999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>0.999</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16">
+        <v>0.3</v>
+      </c>
+      <c r="F16">
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>0.998</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>0.80600000000000005</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="F17">
         <v>0.77</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>0.998</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18">
         <v>0.67700000000000005</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="F18">
         <v>0.623</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>0.999</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>0.82899999999999996</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="F19">
         <v>0.754</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>0.49199999999999999</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="F20">
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>0.55200000000000005</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F21">
         <v>0.46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>0.82299999999999995</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="F22">
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>0.999</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>0.85399999999999998</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="F23">
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>0.81599999999999995</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="F24">
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>0.999</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>0.56399999999999995</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="F25">
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>0.873</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F26">
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="6">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>0.999</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27">
         <v>0.77100000000000002</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F27">
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>0.999</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28">
         <v>0.56899999999999995</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="F28">
         <v>0.495</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>0.999</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29">
         <v>0.61899999999999999</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29">
+        <v>0.751</v>
+      </c>
+      <c r="F29">
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>0.54800000000000004</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="F30">
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="6">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>0.999</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31">
         <v>0.23</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31">
+        <v>0.438</v>
+      </c>
+      <c r="F31">
         <v>0.189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3738,10 +4154,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ECD6C3-44A9-1345-9E7F-55D6FC01B860}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="M7" sqref="H2:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3749,406 +4165,476 @@
     <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" customWidth="1"/>
-    <col min="9" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="22" t="s">
+      <c r="L2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="M2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="2">
         <f>AVERAGE(yinfft_stats!B2:B31)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="2">
         <f>AVERAGE(yinfft_stats!C2:C31)</f>
         <v>0.99296666666666633</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="2">
         <f>AVERAGE(yinfft_stats!D2:D31)</f>
         <v>0.62516666666666665</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="2">
         <f>AVERAGE(yinfft_stats!E2:E31)</f>
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="F3" s="2">
+        <f>AVERAGE(yinfft_stats!F2:F31)</f>
         <v>0.55063333333333331</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="23" t="str">
+      <c r="H3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="13" t="str">
         <f>""&amp;TEXT(B3,"0,000")&amp;" ± "&amp;TEXT(B4,"0,000")&amp;""</f>
         <v>1,000 ± 0,000</v>
       </c>
-      <c r="J3" s="23" t="str">
+      <c r="K3" s="13" t="str">
         <f>""&amp;TEXT(B8,"0,000")&amp;" ± "&amp;TEXT(B9,"0,000")&amp;""</f>
         <v>1,000 ± 0,000</v>
       </c>
-      <c r="K3" s="23" t="str">
+      <c r="L3" s="13" t="str">
         <f>""&amp;TEXT(B13,"0,000")&amp;" ± "&amp;TEXT(B14,"0,000")&amp;""</f>
         <v>0,841 ± 0,081</v>
       </c>
-      <c r="L3" s="23" t="str">
+      <c r="M3" s="13" t="str">
         <f>""&amp;TEXT(B18,"0,000")&amp;" ± "&amp;TEXT(B19,"0,000")&amp;""</f>
         <v>1,000 ± 0,000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="10">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3">
         <f>STDEV(yinfft_stats!B2:B31)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="3">
         <f>STDEV(yinfft_stats!C2:C31)</f>
         <v>2.0506489020649603E-2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="3">
         <f>STDEV(yinfft_stats!D2:D31)</f>
         <v>0.26414887173104046</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="3">
         <f>STDEV(yinfft_stats!E2:E31)</f>
+        <v>0.25597604279064623</v>
+      </c>
+      <c r="F4" s="3">
+        <f>STDEV(yinfft_stats!F2:F31)</f>
         <v>0.22727705761809824</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="H4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="23" t="str">
+      <c r="I4" s="20"/>
+      <c r="J4" s="13" t="str">
         <f>""&amp;TEXT(C3,"0,000")&amp;" ± "&amp;TEXT(C4,"0,000")&amp;""</f>
         <v>0,993 ± 0,021</v>
       </c>
-      <c r="J4" s="23" t="str">
+      <c r="K4" s="13" t="str">
         <f>""&amp;TEXT(C8,"0,000")&amp;" ± "&amp;TEXT(C9,"0,000")&amp;""</f>
         <v>0,993 ± 0,021</v>
       </c>
-      <c r="K4" s="23" t="str">
+      <c r="L4" s="13" t="str">
         <f>""&amp;TEXT(C13,"0,000")&amp;" ± "&amp;TEXT(C14,"0,000")&amp;""</f>
         <v>0,350 ± 0,320</v>
       </c>
-      <c r="L4" s="23" t="str">
+      <c r="M4" s="13" t="str">
         <f>""&amp;TEXT(C18,"0,000")&amp;" ± "&amp;TEXT(C19,"0,000")&amp;""</f>
         <v>0,993 ± 0,021</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G5" s="26" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="23" t="str">
+      <c r="I5" s="20"/>
+      <c r="J5" s="13" t="str">
         <f>""&amp;TEXT(D3,"0,000")&amp;" ± "&amp;TEXT(D4,"0,000")&amp;""</f>
         <v>0,625 ± 0,264</v>
       </c>
-      <c r="J5" s="23" t="str">
+      <c r="K5" s="13" t="str">
         <f>""&amp;TEXT(D8,"0,000")&amp;" ± "&amp;TEXT(D9,"0,000")&amp;""</f>
         <v>0,612 ± 0,266</v>
       </c>
-      <c r="K5" s="23" t="str">
+      <c r="L5" s="13" t="str">
         <f>""&amp;TEXT(D13,"0,000")&amp;" ± "&amp;TEXT(D14,"0,000")&amp;""</f>
         <v>0,591 ± 0,259</v>
       </c>
-      <c r="L5" s="23" t="str">
+      <c r="M5" s="13" t="str">
         <f>""&amp;TEXT(D18,"0,000")&amp;" ± "&amp;TEXT(D19,"0,000")&amp;""</f>
         <v>0,600 ± 0,249</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="G6" s="26" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="H6" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="13" t="str">
+        <f>""&amp;TEXT(E3,"0,000")&amp;" ± "&amp;TEXT(E4,"0,000")&amp;""</f>
+        <v>0,686 ± 0,256</v>
+      </c>
+      <c r="K6" s="13" t="str">
+        <f>""&amp;TEXT(E8,"0,000")&amp;" ± "&amp;TEXT(E9,"0,000")&amp;""</f>
+        <v>0,662 ± 0,258</v>
+      </c>
+      <c r="L6" s="13" t="str">
+        <f>""&amp;TEXT(E13,"0,000")&amp;" ± "&amp;TEXT(E14,"0,000")&amp;""</f>
+        <v>0,622 ± 0,259</v>
+      </c>
+      <c r="M6" s="13" t="str">
+        <f>""&amp;TEXT(E18,"0,000")&amp;" ± "&amp;TEXT(E19,"0,000")&amp;""</f>
+        <v>0,664 ± 0,245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="23" t="str">
-        <f>""&amp;TEXT(E3,"0,000")&amp;" ± "&amp;TEXT(E4,"0,000")&amp;""</f>
+      <c r="H7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="13" t="str">
+        <f>""&amp;TEXT(F3,"0,000")&amp;" ± "&amp;TEXT(F4,"0,000")&amp;""</f>
         <v>0,551 ± 0,227</v>
       </c>
-      <c r="J6" s="23" t="str">
-        <f>""&amp;TEXT(E8,"0,000")&amp;" ± "&amp;TEXT(E9,"0,000")&amp;""</f>
+      <c r="K7" s="13" t="str">
+        <f>""&amp;TEXT(F8,"0,000")&amp;" ± "&amp;TEXT(F9,"0,000")&amp;""</f>
         <v>0,538 ± 0,226</v>
       </c>
-      <c r="K6" s="23" t="str">
-        <f>""&amp;TEXT(E13,"0,000")&amp;" ± "&amp;TEXT(E14,"0,000")&amp;""</f>
+      <c r="L7" s="13" t="str">
+        <f>""&amp;TEXT(F13,"0,000")&amp;" ± "&amp;TEXT(F14,"0,000")&amp;""</f>
         <v>0,588 ± 0,249</v>
       </c>
-      <c r="L6" s="23" t="str">
-        <f>""&amp;TEXT(E18,"0,000")&amp;" ± "&amp;TEXT(E19,"0,000")&amp;""</f>
+      <c r="M7" s="13" t="str">
+        <f>""&amp;TEXT(F18,"0,000")&amp;" ± "&amp;TEXT(F19,"0,000")&amp;""</f>
         <v>0,529 ± 0,217</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="2">
         <f>AVERAGE(yin_stats!B2:B31)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="2">
         <f>AVERAGE(yin_stats!C2:C31)</f>
         <v>0.99296666666666633</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="2">
         <f>AVERAGE(yin_stats!D2:D31)</f>
         <v>0.61226666666666674</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="2">
         <f>AVERAGE(yin_stats!E2:E31)</f>
+        <v>0.66210000000000013</v>
+      </c>
+      <c r="F8" s="2">
+        <f>AVERAGE(yin_stats!F2:F31)</f>
         <v>0.53816666666666679</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="22" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="B9" s="3">
         <f>STDEV(yin_stats!B2:B31)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="3">
         <f>STDEV(yin_stats!C2:C31)</f>
         <v>2.0506489020649603E-2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="3">
         <f>STDEV(yin_stats!D2:D31)</f>
         <v>0.26575084692937112</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="3">
         <f>STDEV(yin_stats!E2:E31)</f>
+        <v>0.25767185092403966</v>
+      </c>
+      <c r="F9" s="3">
+        <f>STDEV(yin_stats!F2:F31)</f>
         <v>0.22601374436896068</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="I10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="13">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K10" s="13">
+        <v>3.6669999999999998</v>
+      </c>
+      <c r="L10" s="13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M10" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="23">
-        <v>3.1E-2</v>
-      </c>
-      <c r="J9" s="23">
-        <v>3.6669999999999998</v>
-      </c>
-      <c r="K9" s="23">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="L9" s="23">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="2">
         <f>AVERAGE(melodia_stats!B2:B31)</f>
         <v>0.84146666666666659</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="2">
         <f>AVERAGE(melodia_stats!C2:C31)</f>
         <v>0.34970000000000001</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="2">
         <f>AVERAGE(melodia_stats!D2:D31)</f>
         <v>0.5905999999999999</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="2">
         <f>AVERAGE(melodia_stats!E2:E31)</f>
+        <v>0.62190000000000012</v>
+      </c>
+      <c r="F13" s="2">
+        <f>AVERAGE(melodia_stats!F2:F31)</f>
         <v>0.58813333333333317</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="10">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3">
         <f>STDEV(melodia_stats!B2:B31)</f>
         <v>8.1265734108724341E-2</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="3">
         <f>STDEV(melodia_stats!C2:C31)</f>
         <v>0.31979855189338097</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="3">
         <f>STDEV(melodia_stats!D2:D31)</f>
         <v>0.25924939397395336</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="3">
         <f>STDEV(melodia_stats!E2:E31)</f>
+        <v>0.25897667981819295</v>
+      </c>
+      <c r="F14" s="3">
+        <f>STDEV(melodia_stats!F2:F31)</f>
         <v>0.24889600838202705</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="14" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="2">
         <f>AVERAGE(hps_stats!B2:B31)</f>
         <v>1</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="2">
         <f>AVERAGE(hps_stats!C2:C31)</f>
         <v>0.99296666666666633</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="2">
         <f>AVERAGE(hps_stats!D2:D31)</f>
         <v>0.59996666666666665</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="2">
         <f>AVERAGE(hps_stats!E2:E31)</f>
+        <v>0.66356666666666664</v>
+      </c>
+      <c r="F18" s="2">
+        <f>AVERAGE(hps_stats!F2:F31)</f>
         <v>0.52896666666666659</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="16">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="9">
         <f>STDEV(hps_stats!B2:B31)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="9">
         <f>STDEV(hps_stats!C2:C31)</f>
         <v>2.0506489020649603E-2</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="9">
         <f>STDEV(hps_stats!D2:D31)</f>
         <v>0.24943003764214314</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="9">
         <f>STDEV(hps_stats!E2:E31)</f>
+        <v>0.244935274114912</v>
+      </c>
+      <c r="F19" s="9">
+        <f>STDEV(hps_stats!F2:F31)</f>
         <v>0.21722409902080941</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
+  <mergeCells count="9">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/statistics/stats.xlsx
+++ b/statistics/stats.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliatortosa/Documents/TFG/Code/AlgorithmAnalysis/statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F3DAA4E6-BFB5-D147-93F7-D2E702E663FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{448A841A-8591-9048-BB4B-F05A60C67244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="800" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{35D7B741-9824-8449-880C-2CA5D85E4D9C}"/>
+    <workbookView xWindow="1080" yWindow="800" windowWidth="28040" windowHeight="17440" activeTab="8" xr2:uid="{35D7B741-9824-8449-880C-2CA5D85E4D9C}"/>
   </bookViews>
   <sheets>
-    <sheet name="yinfft_stats" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="yin_stats" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="melodia_stats" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="hps_stats" sheetId="1" state="hidden" r:id="rId4"/>
+    <sheet name="yinfft_stats" sheetId="4" r:id="rId1"/>
+    <sheet name="yin_stats" sheetId="3" r:id="rId2"/>
+    <sheet name="melodia_stats" sheetId="2" r:id="rId3"/>
+    <sheet name="hps_stats" sheetId="1" r:id="rId4"/>
     <sheet name="Summary" sheetId="10" r:id="rId5"/>
     <sheet name="General stats" sheetId="6" r:id="rId6"/>
     <sheet name="Stats Allemande" sheetId="5" r:id="rId7"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="358" uniqueCount="47">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="359" uniqueCount="47">
   <si>
     <t>Audio Fragment</t>
   </si>
@@ -202,10 +202,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -351,6 +352,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1062,7 +1069,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1107,6 +1114,27 @@
     <xf numFmtId="0" fontId="18" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1119,15 +1147,6 @@
     <xf numFmtId="0" fontId="18" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1137,18 +1156,15 @@
     <xf numFmtId="0" fontId="13" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1195,22 +1211,6 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <start style="thin">
@@ -1285,6 +1285,22 @@
         </vertical>
       </border>
     </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1305,15 +1321,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0735E96-1D55-AF4F-8675-1103B0B90AEB}" name="Table1" displayName="Table1" ref="A1:F31" totalsRowShown="0" tableBorderDxfId="0">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0735E96-1D55-AF4F-8675-1103B0B90AEB}" name="Table1" displayName="Table1" ref="A1:F31" totalsRowShown="0" tableBorderDxfId="6">
   <autoFilter ref="A1:F31" xr:uid="{F0735E96-1D55-AF4F-8675-1103B0B90AEB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{173EF5D9-3D06-934D-94FF-D1A8C7959B4A}" name="Audio Fragment" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{941CFE92-AB18-D84F-AD54-C16E3FCF4D5D}" name="Voicing Recall" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C8385A02-D96F-7746-BF8F-EEBCA3C30612}" name="Voicing False Alarm" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E2589D5E-230E-A24E-9302-5DFE0DD81287}" name="Raw Pitch Accuracy" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{B4A33231-42C5-514A-B796-DA1ECB3BAC7C}" name="Raw Chroma Accuracy" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{6F5BE0DC-E59B-1041-BDBC-9D0997485503}" name="Overall Accuracy" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{173EF5D9-3D06-934D-94FF-D1A8C7959B4A}" name="Audio Fragment" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{941CFE92-AB18-D84F-AD54-C16E3FCF4D5D}" name="Voicing Recall" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C8385A02-D96F-7746-BF8F-EEBCA3C30612}" name="Voicing False Alarm" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{E2589D5E-230E-A24E-9302-5DFE0DD81287}" name="Raw Pitch Accuracy" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B4A33231-42C5-514A-B796-DA1ECB3BAC7C}" name="Raw Chroma Accuracy" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{6F5BE0DC-E59B-1041-BDBC-9D0997485503}" name="Overall Accuracy" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1639,10 +1655,10 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -1652,7 +1668,7 @@
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1672,7 +1688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1683,16 +1699,16 @@
         <v>0.99709999999999999</v>
       </c>
       <c r="D2">
-        <v>0.5968</v>
+        <v>0.55840000000000001</v>
       </c>
       <c r="E2">
-        <v>0.69130000000000003</v>
+        <v>0.64949999999999997</v>
       </c>
       <c r="F2">
-        <v>0.57050000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.53380000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1703,16 +1719,16 @@
         <v>0.99509999999999998</v>
       </c>
       <c r="D3">
-        <v>0.63570000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E3">
-        <v>0.72270000000000001</v>
+        <v>0.65680000000000005</v>
       </c>
       <c r="F3">
-        <v>0.61929999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.56030000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1723,16 +1739,16 @@
         <v>0.99660000000000004</v>
       </c>
       <c r="D4">
-        <v>0.63349999999999995</v>
+        <v>0.60009999999999997</v>
       </c>
       <c r="E4">
-        <v>0.76880000000000004</v>
+        <v>0.72770000000000001</v>
       </c>
       <c r="F4">
-        <v>0.60540000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.5736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1743,16 +1759,16 @@
         <v>0.997</v>
       </c>
       <c r="D5">
-        <v>0.56169999999999998</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="E5">
-        <v>0.69269999999999998</v>
+        <v>0.56279999999999997</v>
       </c>
       <c r="F5">
-        <v>0.53859999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.43580000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1763,16 +1779,16 @@
         <v>0.99460000000000004</v>
       </c>
       <c r="D6">
-        <v>0.64939999999999998</v>
+        <v>0.61609999999999998</v>
       </c>
       <c r="E6">
-        <v>0.79</v>
+        <v>0.74739999999999995</v>
       </c>
       <c r="F6">
-        <v>0.62390000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.59179999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1783,16 +1799,16 @@
         <v>0.93330000000000002</v>
       </c>
       <c r="D7">
-        <v>0.55320000000000003</v>
+        <v>0.50439999999999996</v>
       </c>
       <c r="E7">
-        <v>0.6744</v>
+        <v>0.61739999999999995</v>
       </c>
       <c r="F7">
-        <v>0.55159999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1803,16 +1819,16 @@
         <v>0.99509999999999998</v>
       </c>
       <c r="D8">
-        <v>0.50770000000000004</v>
+        <v>0.4738</v>
       </c>
       <c r="E8">
-        <v>0.62870000000000004</v>
+        <v>0.58909999999999996</v>
       </c>
       <c r="F8">
-        <v>0.49149999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.4587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1823,16 +1839,16 @@
         <v>0.99390000000000001</v>
       </c>
       <c r="D9">
-        <v>0.58460000000000001</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="E9">
-        <v>0.78500000000000003</v>
+        <v>0.74180000000000001</v>
       </c>
       <c r="F9">
-        <v>0.56830000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.53029999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1843,16 +1859,16 @@
         <v>0.99819999999999998</v>
       </c>
       <c r="D10">
-        <v>0.5796</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="E10">
-        <v>0.70830000000000004</v>
+        <v>0.58660000000000001</v>
       </c>
       <c r="F10">
-        <v>0.53620000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.43390000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1863,16 +1879,16 @@
         <v>0.99829999999999997</v>
       </c>
       <c r="D11">
-        <v>0.45710000000000001</v>
+        <v>0.2392</v>
       </c>
       <c r="E11">
-        <v>0.66220000000000001</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="F11">
-        <v>0.41520000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.21729999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1883,16 +1899,16 @@
         <v>0.90549999999999997</v>
       </c>
       <c r="D12">
-        <v>0.92049999999999998</v>
+        <v>0.87849999999999995</v>
       </c>
       <c r="E12">
-        <v>0.94650000000000001</v>
+        <v>0.90449999999999997</v>
       </c>
       <c r="F12">
-        <v>0.7954</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.75970000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1903,16 +1919,16 @@
         <v>0.99939999999999996</v>
       </c>
       <c r="D13">
-        <v>0.94699999999999995</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="E13">
-        <v>0.95730000000000004</v>
+        <v>0.93730000000000002</v>
       </c>
       <c r="F13">
-        <v>0.78190000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.76580000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1923,16 +1939,16 @@
         <v>0.99890000000000001</v>
       </c>
       <c r="D14">
-        <v>0.94889999999999997</v>
+        <v>0.93640000000000001</v>
       </c>
       <c r="E14">
-        <v>0.95369999999999999</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="F14">
-        <v>0.85699999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.84570000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1943,16 +1959,16 @@
         <v>0.99939999999999996</v>
       </c>
       <c r="D15">
-        <v>0.91300000000000003</v>
+        <v>0.89939999999999998</v>
       </c>
       <c r="E15">
-        <v>0.92900000000000005</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="F15">
-        <v>0.76149999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.75009999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1963,16 +1979,16 @@
         <v>0.99909999999999999</v>
       </c>
       <c r="D16">
-        <v>0.77639999999999998</v>
+        <v>0.32969999999999999</v>
       </c>
       <c r="E16">
-        <v>0.79290000000000005</v>
+        <v>0.33710000000000001</v>
       </c>
       <c r="F16">
-        <v>0.68779999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.29210000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1983,16 +1999,16 @@
         <v>0.99760000000000004</v>
       </c>
       <c r="D17">
-        <v>0.88880000000000003</v>
+        <v>0.87239999999999995</v>
       </c>
       <c r="E17">
-        <v>0.94989999999999997</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="F17">
-        <v>0.84899999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.83340000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2003,16 +2019,16 @@
         <v>0.99839999999999995</v>
       </c>
       <c r="D18">
-        <v>0.80449999999999999</v>
+        <v>0.74580000000000002</v>
       </c>
       <c r="E18">
-        <v>0.82830000000000004</v>
+        <v>0.76910000000000001</v>
       </c>
       <c r="F18">
-        <v>0.74039999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.6865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2023,16 +2039,16 @@
         <v>0.99890000000000001</v>
       </c>
       <c r="D19">
-        <v>0.875</v>
+        <v>0.84470000000000001</v>
       </c>
       <c r="E19">
-        <v>0.92310000000000003</v>
+        <v>0.89219999999999999</v>
       </c>
       <c r="F19">
-        <v>0.79520000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.76770000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2043,16 +2059,16 @@
         <v>0.99960000000000004</v>
       </c>
       <c r="D20">
-        <v>0.72399999999999998</v>
+        <v>0.55689999999999995</v>
       </c>
       <c r="E20">
-        <v>0.73329999999999995</v>
+        <v>0.56369999999999998</v>
       </c>
       <c r="F20">
-        <v>0.62670000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.48209999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2063,16 +2079,16 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="D21">
-        <v>0.85750000000000004</v>
+        <v>0.37580000000000002</v>
       </c>
       <c r="E21">
-        <v>0.86350000000000005</v>
+        <v>0.37819999999999998</v>
       </c>
       <c r="F21">
-        <v>0.71419999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2083,16 +2099,16 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="D22">
-        <v>0.94330000000000003</v>
+        <v>0.90110000000000001</v>
       </c>
       <c r="E22">
-        <v>0.96360000000000001</v>
+        <v>0.91910000000000003</v>
       </c>
       <c r="F22">
-        <v>0.83050000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.79349999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2103,16 +2119,16 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="D23">
-        <v>0.95350000000000001</v>
+        <v>0.91810000000000003</v>
       </c>
       <c r="E23">
-        <v>0.97060000000000002</v>
+        <v>0.93479999999999996</v>
       </c>
       <c r="F23">
-        <v>0.80200000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.77229999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2123,16 +2139,16 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="D24">
-        <v>0.86629999999999996</v>
+        <v>0.83720000000000006</v>
       </c>
       <c r="E24">
-        <v>0.93</v>
+        <v>0.89970000000000006</v>
       </c>
       <c r="F24">
-        <v>0.54600000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.52759999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2143,16 +2159,16 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="D25">
-        <v>0.82199999999999995</v>
+        <v>0.6522</v>
       </c>
       <c r="E25">
-        <v>0.89029999999999998</v>
+        <v>0.70379999999999998</v>
       </c>
       <c r="F25">
-        <v>0.69420000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.55089999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2163,16 +2179,16 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="D26">
-        <v>0.90249999999999997</v>
+        <v>0.88349999999999995</v>
       </c>
       <c r="E26">
-        <v>0.93340000000000001</v>
+        <v>0.91349999999999998</v>
       </c>
       <c r="F26">
-        <v>0.74660000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.73089999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2183,16 +2199,16 @@
         <v>0.99939999999999996</v>
       </c>
       <c r="D27">
-        <v>0.90339999999999998</v>
+        <v>0.8548</v>
       </c>
       <c r="E27">
-        <v>0.94389999999999996</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="F27">
-        <v>0.81399999999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.7702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2203,16 +2219,16 @@
         <v>0.99929999999999997</v>
       </c>
       <c r="D28">
-        <v>0.6764</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="E28">
-        <v>0.76249999999999996</v>
+        <v>0.7077</v>
       </c>
       <c r="F28">
-        <v>0.58860000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.55349999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2223,16 +2239,16 @@
         <v>0.99880000000000002</v>
       </c>
       <c r="D29">
-        <v>0.69720000000000004</v>
+        <v>0.5978</v>
       </c>
       <c r="E29">
-        <v>0.82530000000000003</v>
+        <v>0.71789999999999998</v>
       </c>
       <c r="F29">
-        <v>0.59309999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.50849999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2243,16 +2259,16 @@
         <v>0.99960000000000004</v>
       </c>
       <c r="D30">
-        <v>0.82430000000000003</v>
+        <v>0.72070000000000001</v>
       </c>
       <c r="E30">
-        <v>0.87250000000000005</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="F30">
-        <v>0.7016</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.61339999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2263,13 +2279,13 @@
         <v>0.99909999999999999</v>
       </c>
       <c r="D31">
-        <v>0.35449999999999998</v>
+        <v>0.22109999999999999</v>
       </c>
       <c r="E31">
-        <v>0.58340000000000003</v>
+        <v>0.3856</v>
       </c>
       <c r="F31">
-        <v>0.29099999999999998</v>
+        <v>0.18160000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +2305,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -2304,16 +2320,16 @@
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2330,7 +2346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -2344,18 +2360,18 @@
       </c>
       <c r="D3" s="11">
         <f>AVERAGE(yinfft_stats!D28:D31)</f>
-        <v>0.6381</v>
+        <v>0.54389999999999994</v>
       </c>
       <c r="E3" s="11">
         <f>AVERAGE(yinfft_stats!E28:E31)</f>
-        <v>0.76092500000000007</v>
+        <v>0.64255000000000007</v>
       </c>
       <c r="F3" s="11">
         <f>AVERAGE(yinfft_stats!F28:F31)</f>
-        <v>0.54357500000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.46424999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2369,27 +2385,27 @@
       </c>
       <c r="D4" s="12">
         <f>STDEV(yinfft_stats!D28:D31)</f>
-        <v>0.2000492439375865</v>
+        <v>0.22124322965159113</v>
       </c>
       <c r="E4" s="12">
         <f>STDEV(yinfft_stats!E28:E31)</f>
-        <v>0.1266369186559218</v>
+        <v>0.17272912319582936</v>
       </c>
       <c r="F4" s="12">
         <f>STDEV(yinfft_stats!F28:F31)</f>
-        <v>0.17630088627116985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="25" t="s">
+        <v>0.19327042367280792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
@@ -2406,7 +2422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2420,18 +2436,18 @@
       </c>
       <c r="D8" s="11">
         <f>AVERAGE(yin_stats!D28:D31)</f>
-        <v>0.65452500000000002</v>
+        <v>0.53620000000000001</v>
       </c>
       <c r="E8" s="11">
         <f>AVERAGE(yin_stats!E28:E31)</f>
-        <v>0.73865000000000003</v>
+        <v>0.60422500000000001</v>
       </c>
       <c r="F8" s="11">
         <f>AVERAGE(yin_stats!F28:F31)</f>
-        <v>0.55725000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.457675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -2445,30 +2461,30 @@
       </c>
       <c r="D9" s="12">
         <f>STDEV(yin_stats!D28:D31)</f>
-        <v>0.16283769782618912</v>
+        <v>0.19827585161419251</v>
       </c>
       <c r="E9" s="12">
         <f>STDEV(yin_stats!E28:E31)</f>
-        <v>0.12017735504938767</v>
+        <v>0.17453518031235601</v>
       </c>
       <c r="F9" s="12">
         <f>STDEV(yin_stats!F28:F31)</f>
-        <v>0.14674023533668837</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.17523305196223685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="25" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
@@ -2485,7 +2501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -2499,18 +2515,18 @@
       </c>
       <c r="D13" s="11">
         <f>AVERAGE(melodia_stats!D28:D31)</f>
-        <v>0.56952499999999995</v>
+        <v>0.47752499999999998</v>
       </c>
       <c r="E13" s="11">
         <f>AVERAGE(melodia_stats!E28:E31)</f>
-        <v>0.61767499999999997</v>
+        <v>0.51719999999999999</v>
       </c>
       <c r="F13" s="11">
         <f>AVERAGE(melodia_stats!F28:F31)</f>
-        <v>0.56064999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.48352499999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2524,27 +2540,27 @@
       </c>
       <c r="D14" s="12">
         <f>STDEV(melodia_stats!D28:D31)</f>
-        <v>0.16103884365787882</v>
+        <v>0.2157550520845341</v>
       </c>
       <c r="E14" s="12">
         <f>STDEV(melodia_stats!E28:E31)</f>
-        <v>0.11395938969650622</v>
+        <v>0.17621299611549646</v>
       </c>
       <c r="F14" s="12">
         <f>STDEV(melodia_stats!F28:F31)</f>
-        <v>0.11983478905003619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="25" t="s">
+        <v>0.1553977986759574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
@@ -2561,54 +2577,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="11">
-        <f>AVERAGE(hps_stats!B28:B31)</f>
+        <f>AVERAGE(hps_stats!B26:B28)</f>
         <v>1</v>
       </c>
       <c r="C18" s="11">
-        <f>AVERAGE(hps_stats!C28:C31)</f>
-        <v>0.99919999999999998</v>
+        <f>AVERAGE(hps_stats!C26:C28)</f>
+        <v>0.99923333333333331</v>
       </c>
       <c r="D18" s="11">
-        <f>AVERAGE(hps_stats!D28:D31)</f>
-        <v>0.57817500000000011</v>
+        <f>AVERAGE(hps_stats!D26:D28)</f>
+        <v>0.57856666666666667</v>
       </c>
       <c r="E18" s="11">
-        <f>AVERAGE(hps_stats!E28:E31)</f>
-        <v>0.73094999999999999</v>
+        <f>AVERAGE(hps_stats!E26:E28)</f>
+        <v>0.68693333333333328</v>
       </c>
       <c r="F18" s="11">
-        <f>AVERAGE(hps_stats!F28:F31)</f>
-        <v>0.49237500000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <f>AVERAGE(hps_stats!F26:F28)</f>
+        <v>0.49603333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="13">
-        <f>STDEV(hps_stats!B28:B31)</f>
+        <f>STDEV(hps_stats!B26:B28)</f>
         <v>0</v>
       </c>
       <c r="C19" s="13">
-        <f>STDEV(hps_stats!C28:C31)</f>
-        <v>3.3665016461207616E-4</v>
+        <f>STDEV(hps_stats!C26:C28)</f>
+        <v>4.0414518843274387E-4</v>
       </c>
       <c r="D19" s="13">
-        <f>STDEV(hps_stats!D28:D31)</f>
-        <v>0.16421902802862548</v>
+        <f>STDEV(hps_stats!D26:D28)</f>
+        <v>3.70001801797415E-2</v>
       </c>
       <c r="E19" s="13">
-        <f>STDEV(hps_stats!E28:E31)</f>
-        <v>0.10909645579333305</v>
+        <f>STDEV(hps_stats!E26:E28)</f>
+        <v>7.4982153432222309E-2</v>
       </c>
       <c r="F19" s="13">
-        <f>STDEV(hps_stats!F28:F31)</f>
-        <v>0.14564148619126335</v>
+        <f>STDEV(hps_stats!F26:F28)</f>
+        <v>3.0463147134420197E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2628,10 +2644,10 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -2641,624 +2657,624 @@
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28">
-        <v>1</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="B2" s="41">
+        <v>1</v>
+      </c>
+      <c r="C2" s="41">
         <v>0.99709999999999999</v>
       </c>
-      <c r="D2" s="28">
-        <v>0.53420000000000001</v>
-      </c>
-      <c r="E2" s="28">
-        <v>0.63109999999999999</v>
-      </c>
-      <c r="F2" s="34">
-        <v>0.51070000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="35" t="s">
+      <c r="D2" s="41">
+        <v>0.50690000000000002</v>
+      </c>
+      <c r="E2" s="41">
+        <v>0.59660000000000002</v>
+      </c>
+      <c r="F2" s="42">
+        <v>0.48459999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29">
+      <c r="B3" s="43">
+        <v>1</v>
+      </c>
+      <c r="C3" s="43">
         <v>0.99509999999999998</v>
       </c>
-      <c r="D3" s="29">
-        <v>0.62250000000000005</v>
-      </c>
-      <c r="E3" s="29">
-        <v>0.69269999999999998</v>
-      </c>
-      <c r="F3" s="36">
-        <v>0.60650000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="33" t="s">
+      <c r="D3" s="43">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="E3" s="43">
+        <v>0.62770000000000004</v>
+      </c>
+      <c r="F3" s="44">
+        <v>0.55030000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="41">
+        <v>1</v>
+      </c>
+      <c r="C4" s="41">
         <v>0.99660000000000004</v>
       </c>
-      <c r="D4" s="28">
-        <v>0.56189999999999996</v>
-      </c>
-      <c r="E4" s="28">
-        <v>0.67420000000000002</v>
-      </c>
-      <c r="F4" s="34">
-        <v>0.53710000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="35" t="s">
+      <c r="D4" s="41">
+        <v>0.53920000000000001</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F4" s="42">
+        <v>0.51539999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29">
+      <c r="B5" s="43">
+        <v>1</v>
+      </c>
+      <c r="C5" s="43">
         <v>0.997</v>
       </c>
-      <c r="D5" s="29">
-        <v>0.55079999999999996</v>
-      </c>
-      <c r="E5" s="29">
-        <v>0.63139999999999996</v>
-      </c>
-      <c r="F5" s="36">
-        <v>0.52810000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="33" t="s">
+      <c r="D5" s="43">
+        <v>0.44540000000000002</v>
+      </c>
+      <c r="E5" s="43">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0.42709999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="28">
-        <v>1</v>
-      </c>
-      <c r="C6" s="28">
+      <c r="B6" s="41">
+        <v>1</v>
+      </c>
+      <c r="C6" s="41">
         <v>0.99460000000000004</v>
       </c>
-      <c r="D6" s="28">
-        <v>0.59409999999999996</v>
-      </c>
-      <c r="E6" s="28">
-        <v>0.71120000000000005</v>
-      </c>
-      <c r="F6" s="34">
-        <v>0.57069999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="35" t="s">
+      <c r="D6" s="41">
+        <v>0.57340000000000002</v>
+      </c>
+      <c r="E6" s="41">
+        <v>0.67869999999999997</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0.55089999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="29">
-        <v>1</v>
-      </c>
-      <c r="C7" s="29">
+      <c r="B7" s="43">
+        <v>1</v>
+      </c>
+      <c r="C7" s="43">
         <v>0.93330000000000002</v>
       </c>
-      <c r="D7" s="29">
-        <v>0.45850000000000002</v>
-      </c>
-      <c r="E7" s="29">
-        <v>0.56820000000000004</v>
-      </c>
-      <c r="F7" s="36">
-        <v>0.4572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="33" t="s">
+      <c r="D7" s="43">
+        <v>0.4214</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="F7" s="44">
+        <v>0.42030000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="28">
-        <v>1</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="B8" s="41">
+        <v>1</v>
+      </c>
+      <c r="C8" s="41">
         <v>0.99509999999999998</v>
       </c>
-      <c r="D8" s="28">
-        <v>0.50690000000000002</v>
-      </c>
-      <c r="E8" s="28">
-        <v>0.63</v>
-      </c>
-      <c r="F8" s="34">
-        <v>0.49070000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="35" t="s">
+      <c r="D8" s="41">
+        <v>0.48530000000000001</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0.60350000000000004</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0.4698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29">
-        <v>1</v>
-      </c>
-      <c r="C9" s="29">
+      <c r="B9" s="43">
+        <v>1</v>
+      </c>
+      <c r="C9" s="43">
         <v>0.99390000000000001</v>
       </c>
-      <c r="D9" s="29">
-        <v>0.59050000000000002</v>
-      </c>
-      <c r="E9" s="29">
-        <v>0.76619999999999999</v>
-      </c>
-      <c r="F9" s="36">
-        <v>0.57399999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="33" t="s">
+      <c r="D9" s="43">
+        <v>0.56069999999999998</v>
+      </c>
+      <c r="E9" s="43">
+        <v>0.7319</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0.54510000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="28">
-        <v>1</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="41">
+        <v>1</v>
+      </c>
+      <c r="C10" s="41">
         <v>0.99819999999999998</v>
       </c>
-      <c r="D10" s="28">
-        <v>0.62290000000000001</v>
-      </c>
-      <c r="E10" s="28">
-        <v>0.70540000000000003</v>
-      </c>
-      <c r="F10" s="34">
-        <v>0.57620000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="35" t="s">
+      <c r="D10" s="41">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0.5847</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0.47439999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="29">
-        <v>1</v>
-      </c>
-      <c r="C11" s="29">
+      <c r="B11" s="43">
+        <v>1</v>
+      </c>
+      <c r="C11" s="43">
         <v>0.99829999999999997</v>
       </c>
-      <c r="D11" s="29">
-        <v>0.4652</v>
-      </c>
-      <c r="E11" s="29">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="F11" s="36">
-        <v>0.42249999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="33" t="s">
+      <c r="D11" s="43">
+        <v>0.2374</v>
+      </c>
+      <c r="E11" s="43">
+        <v>0.32950000000000002</v>
+      </c>
+      <c r="F11" s="44">
+        <v>0.2157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="28">
-        <v>1</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="41">
+        <v>1</v>
+      </c>
+      <c r="C12" s="41">
         <v>0.90549999999999997</v>
       </c>
-      <c r="D12" s="28">
-        <v>0.87919999999999998</v>
-      </c>
-      <c r="E12" s="28">
-        <v>0.91720000000000002</v>
-      </c>
-      <c r="F12" s="34">
-        <v>0.76029999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="35" t="s">
+      <c r="D12" s="41">
+        <v>0.83960000000000001</v>
+      </c>
+      <c r="E12" s="41">
+        <v>0.87709999999999999</v>
+      </c>
+      <c r="F12" s="42">
+        <v>0.72660000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="29">
-        <v>1</v>
-      </c>
-      <c r="C13" s="29">
+      <c r="B13" s="43">
+        <v>1</v>
+      </c>
+      <c r="C13" s="43">
         <v>0.99939999999999996</v>
       </c>
-      <c r="D13" s="29">
-        <v>0.93020000000000003</v>
-      </c>
-      <c r="E13" s="29">
-        <v>0.9385</v>
-      </c>
-      <c r="F13" s="36">
-        <v>0.76800000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="33" t="s">
+      <c r="D13" s="43">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="E13" s="43">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="F13" s="44">
+        <v>0.75609999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="28">
-        <v>1</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="41">
+        <v>1</v>
+      </c>
+      <c r="C14" s="41">
         <v>0.99890000000000001</v>
       </c>
-      <c r="D14" s="28">
-        <v>0.92169999999999996</v>
-      </c>
-      <c r="E14" s="28">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="F14" s="34">
-        <v>0.83240000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="35" t="s">
+      <c r="D14" s="41">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="E14" s="41">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0.82379999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="29">
-        <v>1</v>
-      </c>
-      <c r="C15" s="29">
+      <c r="B15" s="43">
+        <v>1</v>
+      </c>
+      <c r="C15" s="43">
         <v>0.99939999999999996</v>
       </c>
-      <c r="D15" s="29">
-        <v>0.89929999999999999</v>
-      </c>
-      <c r="E15" s="29">
-        <v>0.9163</v>
-      </c>
-      <c r="F15" s="36">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="33" t="s">
+      <c r="D15" s="43">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="F15" s="44">
+        <v>0.73919999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="28">
-        <v>1</v>
-      </c>
-      <c r="C16" s="28">
+      <c r="B16" s="41">
+        <v>1</v>
+      </c>
+      <c r="C16" s="41">
         <v>0.99909999999999999</v>
       </c>
-      <c r="D16" s="28">
-        <v>0.72170000000000001</v>
-      </c>
-      <c r="E16" s="28">
-        <v>0.77649999999999997</v>
-      </c>
-      <c r="F16" s="34">
-        <v>0.63929999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="35" t="s">
+      <c r="D16" s="41">
+        <v>0.30070000000000002</v>
+      </c>
+      <c r="E16" s="41">
+        <v>0.31690000000000002</v>
+      </c>
+      <c r="F16" s="42">
+        <v>0.26640000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="29">
-        <v>1</v>
-      </c>
-      <c r="C17" s="29">
+      <c r="B17" s="43">
+        <v>1</v>
+      </c>
+      <c r="C17" s="43">
         <v>0.99760000000000004</v>
       </c>
-      <c r="D17" s="29">
-        <v>0.81479999999999997</v>
-      </c>
-      <c r="E17" s="29">
-        <v>0.88390000000000002</v>
-      </c>
-      <c r="F17" s="36">
-        <v>0.77829999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="33" t="s">
+      <c r="D17" s="43">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="E17" s="43">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0.76659999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="28">
-        <v>1</v>
-      </c>
-      <c r="C18" s="28">
+      <c r="B18" s="41">
+        <v>1</v>
+      </c>
+      <c r="C18" s="41">
         <v>0.99839999999999995</v>
       </c>
-      <c r="D18" s="28">
-        <v>0.80559999999999998</v>
-      </c>
-      <c r="E18" s="28">
-        <v>0.8296</v>
-      </c>
-      <c r="F18" s="34">
-        <v>0.74150000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="35" t="s">
+      <c r="D18" s="41">
+        <v>0.74680000000000002</v>
+      </c>
+      <c r="E18" s="41">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="F18" s="42">
+        <v>0.68730000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="29">
-        <v>1</v>
-      </c>
-      <c r="C19" s="29">
+      <c r="B19" s="43">
+        <v>1</v>
+      </c>
+      <c r="C19" s="43">
         <v>0.99890000000000001</v>
       </c>
-      <c r="D19" s="29">
-        <v>0.85570000000000002</v>
-      </c>
-      <c r="E19" s="29">
-        <v>0.89880000000000004</v>
-      </c>
-      <c r="F19" s="36">
-        <v>0.77759999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="33" t="s">
+      <c r="D19" s="43">
+        <v>0.82769999999999999</v>
+      </c>
+      <c r="E19" s="43">
+        <v>0.86909999999999998</v>
+      </c>
+      <c r="F19" s="44">
+        <v>0.75219999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="28">
-        <v>1</v>
-      </c>
-      <c r="C20" s="28">
+      <c r="B20" s="41">
+        <v>1</v>
+      </c>
+      <c r="C20" s="41">
         <v>0.99960000000000004</v>
       </c>
-      <c r="D20" s="28">
-        <v>0.69950000000000001</v>
-      </c>
-      <c r="E20" s="28">
-        <v>0.71630000000000005</v>
-      </c>
-      <c r="F20" s="34">
-        <v>0.60550000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="35" t="s">
+      <c r="D20" s="41">
+        <v>0.54790000000000005</v>
+      </c>
+      <c r="E20" s="41">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="F20" s="42">
+        <v>0.47420000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="29">
-        <v>1</v>
-      </c>
-      <c r="C21" s="29">
+      <c r="B21" s="43">
+        <v>1</v>
+      </c>
+      <c r="C21" s="43">
         <v>0.99970000000000003</v>
       </c>
-      <c r="D21" s="29">
-        <v>0.79730000000000001</v>
-      </c>
-      <c r="E21" s="29">
-        <v>0.80669999999999997</v>
-      </c>
-      <c r="F21" s="36">
-        <v>0.66400000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="33" t="s">
+      <c r="D21" s="43">
+        <v>0.35809999999999997</v>
+      </c>
+      <c r="E21" s="43">
+        <v>0.3619</v>
+      </c>
+      <c r="F21" s="44">
+        <v>0.29830000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="28">
-        <v>1</v>
-      </c>
-      <c r="C22" s="28">
+      <c r="B22" s="41">
+        <v>1</v>
+      </c>
+      <c r="C22" s="41">
         <v>0.99950000000000006</v>
       </c>
-      <c r="D22" s="28">
-        <v>0.93710000000000004</v>
-      </c>
-      <c r="E22" s="28">
-        <v>0.94779999999999998</v>
-      </c>
-      <c r="F22" s="34">
-        <v>0.82509999999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="35" t="s">
+      <c r="D22" s="41">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="E22" s="41">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="F22" s="42">
+        <v>0.78359999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="29">
-        <v>1</v>
-      </c>
-      <c r="C23" s="29">
+      <c r="B23" s="43">
+        <v>1</v>
+      </c>
+      <c r="C23" s="43">
         <v>0.99950000000000006</v>
       </c>
-      <c r="D23" s="29">
-        <v>0.9546</v>
-      </c>
-      <c r="E23" s="29">
-        <v>0.9677</v>
-      </c>
-      <c r="F23" s="36">
-        <v>0.80289999999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="33" t="s">
+      <c r="D23" s="43">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="E23" s="43">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="F23" s="44">
+        <v>0.77539999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="28">
-        <v>1</v>
-      </c>
-      <c r="C24" s="28">
+      <c r="B24" s="41">
+        <v>1</v>
+      </c>
+      <c r="C24" s="41">
         <v>0.99980000000000002</v>
       </c>
-      <c r="D24" s="28">
-        <v>0.88229999999999997</v>
-      </c>
-      <c r="E24" s="28">
-        <v>0.9103</v>
-      </c>
-      <c r="F24" s="34">
-        <v>0.55600000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="35" t="s">
+      <c r="D24" s="41">
+        <v>0.85409999999999997</v>
+      </c>
+      <c r="E24" s="41">
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="F24" s="42">
+        <v>0.5383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="29">
-        <v>1</v>
-      </c>
-      <c r="C25" s="29">
+      <c r="B25" s="43">
+        <v>1</v>
+      </c>
+      <c r="C25" s="43">
         <v>0.99950000000000006</v>
       </c>
-      <c r="D25" s="29">
-        <v>0.88460000000000005</v>
-      </c>
-      <c r="E25" s="29">
-        <v>0.91810000000000003</v>
-      </c>
-      <c r="F25" s="36">
-        <v>0.74709999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="33" t="s">
+      <c r="D25" s="43">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="E25" s="43">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="F25" s="44">
+        <v>0.58530000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="28">
-        <v>1</v>
-      </c>
-      <c r="C26" s="28">
+      <c r="B26" s="41">
+        <v>1</v>
+      </c>
+      <c r="C26" s="41">
         <v>0.99950000000000006</v>
       </c>
-      <c r="D26" s="28">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="E26" s="28">
-        <v>0.97</v>
-      </c>
-      <c r="F26" s="34">
-        <v>0.80079999999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="35" t="s">
+      <c r="D26" s="41">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="E26" s="41">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="F26" s="42">
+        <v>0.78380000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29">
-        <v>1</v>
-      </c>
-      <c r="C27" s="29">
+      <c r="B27" s="43">
+        <v>1</v>
+      </c>
+      <c r="C27" s="43">
         <v>0.99939999999999996</v>
       </c>
-      <c r="D27" s="29">
-        <v>0.90439999999999998</v>
-      </c>
-      <c r="E27" s="29">
-        <v>0.93959999999999999</v>
-      </c>
-      <c r="F27" s="36">
-        <v>0.81479999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="33" t="s">
+      <c r="D27" s="43">
+        <v>0.85540000000000005</v>
+      </c>
+      <c r="E27" s="43">
+        <v>0.88959999999999995</v>
+      </c>
+      <c r="F27" s="44">
+        <v>0.77080000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="28">
+      <c r="B28" s="41">
+        <v>1</v>
+      </c>
+      <c r="C28" s="41">
         <v>0.99929999999999997</v>
       </c>
-      <c r="D28" s="28">
-        <v>0.71779999999999999</v>
-      </c>
-      <c r="E28" s="28">
-        <v>0.77449999999999997</v>
-      </c>
-      <c r="F28" s="34">
-        <v>0.62460000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="35" t="s">
+      <c r="D28" s="41">
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="E28" s="41">
+        <v>0.71240000000000003</v>
+      </c>
+      <c r="F28" s="42">
+        <v>0.58009999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="29">
+      <c r="B29" s="43">
+        <v>1</v>
+      </c>
+      <c r="C29" s="43">
         <v>0.99880000000000002</v>
       </c>
-      <c r="D29" s="29">
-        <v>0.6956</v>
-      </c>
-      <c r="E29" s="29">
-        <v>0.80030000000000001</v>
-      </c>
-      <c r="F29" s="36">
-        <v>0.5917</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="33" t="s">
+      <c r="D29" s="43">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E29" s="43">
+        <v>0.69930000000000003</v>
+      </c>
+      <c r="F29" s="44">
+        <v>0.50960000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="28">
-        <v>1</v>
-      </c>
-      <c r="C30" s="28">
+      <c r="B30" s="41">
+        <v>1</v>
+      </c>
+      <c r="C30" s="41">
         <v>0.99960000000000004</v>
       </c>
-      <c r="D30" s="28">
-        <v>0.7873</v>
-      </c>
-      <c r="E30" s="28">
-        <v>0.81930000000000003</v>
-      </c>
-      <c r="F30" s="34">
-        <v>0.67020000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="37" t="s">
+      <c r="D30" s="41">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="E30" s="41">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="F30" s="42">
+        <v>0.54259999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="38">
-        <v>1</v>
-      </c>
-      <c r="C31" s="38">
+      <c r="B31" s="45">
+        <v>1</v>
+      </c>
+      <c r="C31" s="45">
         <v>0.99909999999999999</v>
       </c>
-      <c r="D31" s="38">
-        <v>0.41739999999999999</v>
-      </c>
-      <c r="E31" s="38">
-        <v>0.5605</v>
-      </c>
-      <c r="F31" s="39">
-        <v>0.34250000000000003</v>
+      <c r="D31" s="45">
+        <v>0.2417</v>
+      </c>
+      <c r="E31" s="45">
+        <v>0.34449999999999997</v>
+      </c>
+      <c r="F31" s="46">
+        <v>0.19839999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3273,10 +3289,10 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -3286,624 +3302,624 @@
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="18">
         <v>0.8216</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="18">
         <v>0.22570000000000001</v>
       </c>
-      <c r="D2" s="28">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="E2" s="28">
-        <v>0.71479999999999999</v>
-      </c>
-      <c r="F2" s="34">
-        <v>0.71089999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="35" t="s">
+      <c r="D2" s="18">
+        <v>0.68910000000000005</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="F2" s="24">
+        <v>0.69289999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="19">
         <v>0.84089999999999998</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="19">
         <v>0.1845</v>
       </c>
-      <c r="D3" s="29">
-        <v>0.76970000000000005</v>
-      </c>
-      <c r="E3" s="29">
-        <v>0.77510000000000001</v>
-      </c>
-      <c r="F3" s="36">
-        <v>0.77090000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="33" t="s">
+      <c r="D3" s="19">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.74839999999999995</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.74550000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="18">
         <v>0.82399999999999995</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="18">
         <v>0.22639999999999999</v>
       </c>
-      <c r="D4" s="28">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="E4" s="28">
-        <v>0.74770000000000003</v>
-      </c>
-      <c r="F4" s="34">
-        <v>0.73709999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="35" t="s">
+      <c r="D4" s="18">
+        <v>0.72819999999999996</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0.73019999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="19">
         <v>0.76749999999999996</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="19">
         <v>0</v>
       </c>
-      <c r="D5" s="29">
-        <v>0.63349999999999995</v>
-      </c>
-      <c r="E5" s="29">
-        <v>0.64429999999999998</v>
-      </c>
-      <c r="F5" s="36">
-        <v>0.64870000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="33" t="s">
+      <c r="D5" s="19">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.5363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="18">
         <v>0.87050000000000005</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="18">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="D6" s="28">
-        <v>0.76890000000000003</v>
-      </c>
-      <c r="E6" s="28">
-        <v>0.78490000000000004</v>
-      </c>
-      <c r="F6" s="34">
-        <v>0.77790000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="35" t="s">
+      <c r="D6" s="18">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.77290000000000003</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0.76680000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="19">
         <v>0.79210000000000003</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="19">
         <v>0</v>
       </c>
-      <c r="D7" s="29">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="E7" s="29">
-        <v>0.6915</v>
-      </c>
-      <c r="F7" s="36">
-        <v>0.67010000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="33" t="s">
+      <c r="D7" s="19">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.65059999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="18">
         <v>0.85219999999999996</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="18">
         <v>0.52200000000000002</v>
       </c>
-      <c r="D8" s="28">
-        <v>0.63109999999999999</v>
-      </c>
-      <c r="E8" s="28">
-        <v>0.63190000000000002</v>
-      </c>
-      <c r="F8" s="34">
-        <v>0.62619999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="35" t="s">
+      <c r="D8" s="18">
+        <v>0.62460000000000004</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.62539999999999996</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0.61990000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="19">
         <v>0.78739999999999999</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="19">
         <v>0.15240000000000001</v>
       </c>
-      <c r="D9" s="29">
-        <v>0.71709999999999996</v>
-      </c>
-      <c r="E9" s="29">
-        <v>0.71850000000000003</v>
-      </c>
-      <c r="F9" s="36">
-        <v>0.72070000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="33" t="s">
+      <c r="D9" s="19">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.71030000000000004</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.71319999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="18">
         <v>0.86060000000000003</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="18">
         <v>0.96519999999999995</v>
       </c>
-      <c r="D10" s="28">
-        <v>0.59860000000000002</v>
-      </c>
-      <c r="E10" s="28">
-        <v>0.71589999999999998</v>
-      </c>
-      <c r="F10" s="34">
-        <v>0.55630000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="35" t="s">
+      <c r="D10" s="18">
+        <v>0.59079999999999999</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0.62509999999999999</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="19">
         <v>0.82720000000000005</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="19">
         <v>0.86850000000000005</v>
       </c>
-      <c r="D11" s="29">
-        <v>0.49990000000000001</v>
-      </c>
-      <c r="E11" s="29">
-        <v>0.63870000000000005</v>
-      </c>
-      <c r="F11" s="36">
-        <v>0.46600000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="33" t="s">
+      <c r="D11" s="19">
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.2772</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.21490000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="18">
         <v>0.96599999999999997</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="18">
         <v>1.78E-2</v>
       </c>
-      <c r="D12" s="28">
-        <v>0.9405</v>
-      </c>
-      <c r="E12" s="28">
-        <v>0.94059999999999999</v>
-      </c>
-      <c r="F12" s="34">
-        <v>0.94679999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="35" t="s">
+      <c r="D12" s="18">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0.93630000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="19">
         <v>0.90290000000000004</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="19">
         <v>0</v>
       </c>
-      <c r="D13" s="29">
-        <v>0.88160000000000005</v>
-      </c>
-      <c r="E13" s="29">
-        <v>0.88170000000000004</v>
-      </c>
-      <c r="F13" s="36">
-        <v>0.90229999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="33" t="s">
+      <c r="D13" s="19">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0.89829999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="18">
         <v>0.95120000000000005</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="18">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="18">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0.1075</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="E15" s="19">
         <v>0.92010000000000003</v>
       </c>
-      <c r="E14" s="28">
-        <v>0.93069999999999997</v>
-      </c>
-      <c r="F14" s="34">
-        <v>0.92710000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="29">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="C15" s="29">
-        <v>0.1075</v>
-      </c>
-      <c r="D15" s="29">
-        <v>0.91610000000000003</v>
-      </c>
-      <c r="E15" s="29">
-        <v>0.92269999999999996</v>
-      </c>
-      <c r="F15" s="36">
-        <v>0.91210000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="33" t="s">
+      <c r="F15" s="26">
+        <v>0.91010000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="18">
         <v>0.9022</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="18">
         <v>0.25659999999999999</v>
       </c>
-      <c r="D16" s="28">
-        <v>0.6129</v>
-      </c>
-      <c r="E16" s="28">
-        <v>0.70650000000000002</v>
-      </c>
-      <c r="F16" s="34">
-        <v>0.62780000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="35" t="s">
+      <c r="D16" s="18">
+        <v>0.1792</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.18770000000000001</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0.2437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="19">
         <v>0.67810000000000004</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="19">
         <v>0</v>
       </c>
-      <c r="D17" s="29">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="E17" s="29">
-        <v>0.65390000000000004</v>
-      </c>
-      <c r="F17" s="36">
-        <v>0.59699999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="33" t="s">
+      <c r="D17" s="19">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0.64880000000000004</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0.59209999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="18">
         <v>0.88890000000000002</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="18">
         <v>0.44579999999999997</v>
       </c>
-      <c r="D18" s="28">
-        <v>0.7117</v>
-      </c>
-      <c r="E18" s="28">
-        <v>0.71779999999999999</v>
-      </c>
-      <c r="F18" s="34">
-        <v>0.69910000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="35" t="s">
+      <c r="D18" s="18">
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.67269999999999996</v>
+      </c>
+      <c r="F18" s="24">
+        <v>0.65759999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="19">
         <v>0.9012</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="19">
         <v>0.23219999999999999</v>
       </c>
-      <c r="D19" s="29">
-        <v>0.83450000000000002</v>
-      </c>
-      <c r="E19" s="29">
-        <v>0.84450000000000003</v>
-      </c>
-      <c r="F19" s="36">
-        <v>0.82840000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="33" t="s">
+      <c r="D19" s="19">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="18">
         <v>0.80130000000000001</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="18">
         <v>0.57150000000000001</v>
       </c>
-      <c r="D20" s="28">
-        <v>0.67110000000000003</v>
-      </c>
-      <c r="E20" s="28">
-        <v>0.67290000000000005</v>
-      </c>
-      <c r="F20" s="34">
-        <v>0.63849999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="35" t="s">
+      <c r="D20" s="18">
+        <v>0.46610000000000001</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0.4677</v>
+      </c>
+      <c r="F20" s="24">
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="19">
         <v>0.90129999999999999</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="19">
         <v>0.71679999999999999</v>
       </c>
-      <c r="D21" s="29">
-        <v>0.69679999999999997</v>
-      </c>
-      <c r="E21" s="29">
-        <v>0.70409999999999995</v>
-      </c>
-      <c r="F21" s="36">
-        <v>0.62760000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="33" t="s">
+      <c r="D21" s="19">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0.29270000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="18">
         <v>0.97170000000000001</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="18">
         <v>0.44769999999999999</v>
       </c>
-      <c r="D22" s="28">
-        <v>0.95450000000000002</v>
-      </c>
-      <c r="E22" s="28">
-        <v>0.95750000000000002</v>
-      </c>
-      <c r="F22" s="34">
-        <v>0.90639999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="35" t="s">
+      <c r="D22" s="18">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0.8427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="19">
         <v>0.746</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="19">
         <v>0.56340000000000001</v>
       </c>
-      <c r="D23" s="29">
-        <v>0.72509999999999997</v>
-      </c>
-      <c r="E23" s="29">
-        <v>0.72509999999999997</v>
-      </c>
-      <c r="F23" s="36">
-        <v>0.67930000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="33" t="s">
+      <c r="D23" s="19">
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0.65739999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="18">
         <v>0.75480000000000003</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="18">
         <v>0.71430000000000005</v>
       </c>
-      <c r="D24" s="28">
-        <v>0.72929999999999995</v>
-      </c>
-      <c r="E24" s="28">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F24" s="34">
-        <v>0.56520000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="35" t="s">
+      <c r="D24" s="18">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0.73040000000000005</v>
+      </c>
+      <c r="F24" s="24">
+        <v>0.56059999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="19">
         <v>0.86799999999999999</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="19">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="D25" s="29">
-        <v>0.77559999999999996</v>
-      </c>
-      <c r="E25" s="29">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="F25" s="36">
-        <v>0.80030000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="33" t="s">
+      <c r="D25" s="19">
+        <v>0.58389999999999997</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0.60140000000000005</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0.63839999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="18">
         <v>0.96489999999999998</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="18">
         <v>0.99719999999999998</v>
       </c>
-      <c r="D26" s="28">
-        <v>0.50329999999999997</v>
-      </c>
-      <c r="E26" s="28">
-        <v>0.94769999999999999</v>
-      </c>
-      <c r="F26" s="34">
-        <v>0.4168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="35" t="s">
+      <c r="D26" s="18">
+        <v>0.4924</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0.4078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="19">
         <v>0.8075</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="19">
         <v>0.1022</v>
       </c>
-      <c r="D27" s="29">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="E27" s="29">
-        <v>0.78559999999999997</v>
-      </c>
-      <c r="F27" s="36">
-        <v>0.71220000000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="33" t="s">
+      <c r="D27" s="19">
+        <v>0.64080000000000004</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0.73450000000000004</v>
+      </c>
+      <c r="F27" s="26">
+        <v>0.6663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="18">
         <v>0.84150000000000003</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="18">
         <v>0.70189999999999997</v>
       </c>
-      <c r="D28" s="28">
-        <v>0.71409999999999996</v>
-      </c>
-      <c r="E28" s="28">
-        <v>0.73040000000000005</v>
-      </c>
-      <c r="F28" s="34">
-        <v>0.66010000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="35" t="s">
+      <c r="D28" s="18">
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0.70579999999999998</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="19">
         <v>0.66449999999999998</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="19">
         <v>0.80330000000000001</v>
       </c>
-      <c r="D29" s="29">
-        <v>0.56189999999999996</v>
-      </c>
-      <c r="E29" s="29">
-        <v>0.59379999999999999</v>
-      </c>
-      <c r="F29" s="36">
-        <v>0.50729999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="33" t="s">
+      <c r="D29" s="19">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="F29" s="26">
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="18">
         <v>0.73609999999999998</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="18">
         <v>0.3216</v>
       </c>
-      <c r="D30" s="28">
-        <v>0.65510000000000002</v>
-      </c>
-      <c r="E30" s="28">
-        <v>0.67749999999999999</v>
-      </c>
-      <c r="F30" s="34">
-        <v>0.65859999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="37" t="s">
+      <c r="D30" s="18">
+        <v>0.52910000000000001</v>
+      </c>
+      <c r="E30" s="18">
+        <v>0.54569999999999996</v>
+      </c>
+      <c r="F30" s="24">
+        <v>0.55130000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31" s="28">
         <v>0.76680000000000004</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="28">
         <v>0.26600000000000001</v>
       </c>
-      <c r="D31" s="38">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="E31" s="38">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="F31" s="39">
-        <v>0.41660000000000003</v>
+      <c r="D31" s="28">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="E31" s="28">
+        <v>0.27979999999999999</v>
+      </c>
+      <c r="F31" s="29">
+        <v>0.27879999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3915,13 +3931,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0EB030-7576-8B4F-A3B3-00C30A887AB6}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -3931,624 +3947,564 @@
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28">
-        <v>1</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18">
         <v>0.99709999999999999</v>
       </c>
-      <c r="D2" s="28">
-        <v>0.66549999999999998</v>
-      </c>
-      <c r="E2" s="28">
-        <v>0.79059999999999997</v>
-      </c>
-      <c r="F2" s="34">
-        <v>0.63619999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="35" t="s">
+      <c r="D2" s="18">
+        <v>0.50180000000000002</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.59209999999999996</v>
+      </c>
+      <c r="F2" s="24">
+        <v>0.47970000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29">
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
         <v>0.99509999999999998</v>
       </c>
-      <c r="D3" s="29">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="E3" s="29">
-        <v>0.77280000000000004</v>
-      </c>
-      <c r="F3" s="36">
-        <v>0.60309999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="33" t="s">
+      <c r="D3" s="19">
+        <v>0.4708</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.56410000000000005</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.4587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18">
         <v>0.99660000000000004</v>
       </c>
-      <c r="D4" s="28">
-        <v>0.71619999999999995</v>
-      </c>
-      <c r="E4" s="28">
-        <v>0.82730000000000004</v>
-      </c>
-      <c r="F4" s="34">
-        <v>0.6845</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="35" t="s">
+      <c r="D4" s="18">
+        <v>0.70550000000000002</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0.67430000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29">
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19">
         <v>0.997</v>
       </c>
-      <c r="D5" s="29">
-        <v>0.47620000000000001</v>
-      </c>
-      <c r="E5" s="29">
-        <v>0.64549999999999996</v>
-      </c>
-      <c r="F5" s="36">
-        <v>0.45660000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="33" t="s">
+      <c r="D5" s="19">
+        <v>0.3538</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.50929999999999997</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.33929999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="28">
-        <v>1</v>
-      </c>
-      <c r="C6" s="28">
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
         <v>0.99460000000000004</v>
       </c>
-      <c r="D6" s="28">
-        <v>0.68610000000000004</v>
-      </c>
-      <c r="E6" s="28">
-        <v>0.78</v>
-      </c>
-      <c r="F6" s="34">
-        <v>0.65910000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="35" t="s">
+      <c r="D6" s="18">
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.69450000000000001</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0.58179999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="29">
-        <v>1</v>
-      </c>
-      <c r="C7" s="29">
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19">
         <v>0.93330000000000002</v>
       </c>
-      <c r="D7" s="29">
-        <v>0.67549999999999999</v>
-      </c>
-      <c r="E7" s="29">
-        <v>0.77410000000000001</v>
-      </c>
-      <c r="F7" s="36">
-        <v>0.67349999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="33" t="s">
+      <c r="D7" s="19">
+        <v>0.58809999999999996</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.66879999999999995</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.58640000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="28">
-        <v>1</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18">
         <v>0.99509999999999998</v>
       </c>
-      <c r="D8" s="28">
-        <v>0.5262</v>
-      </c>
-      <c r="E8" s="28">
-        <v>0.62380000000000002</v>
-      </c>
-      <c r="F8" s="34">
-        <v>0.50939999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="35" t="s">
+      <c r="D8" s="18">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0.50219999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29">
-        <v>1</v>
-      </c>
-      <c r="C9" s="29">
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19">
         <v>0.99390000000000001</v>
       </c>
-      <c r="D9" s="29">
-        <v>0.76429999999999998</v>
-      </c>
-      <c r="E9" s="29">
-        <v>0.8458</v>
-      </c>
-      <c r="F9" s="36">
-        <v>0.7429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="33" t="s">
+      <c r="D9" s="19">
+        <v>0.67410000000000003</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.75070000000000003</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.65529999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="28">
-        <v>1</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18">
         <v>0.99819999999999998</v>
       </c>
-      <c r="D10" s="28">
-        <v>0.58209999999999995</v>
-      </c>
-      <c r="E10" s="28">
-        <v>0.70879999999999999</v>
-      </c>
-      <c r="F10" s="34">
-        <v>0.53859999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="29">
-        <v>1</v>
-      </c>
-      <c r="C11" s="29">
-        <v>0.99829999999999997</v>
-      </c>
-      <c r="D11" s="29">
-        <v>0.4471</v>
-      </c>
-      <c r="E11" s="29">
-        <v>0.55059999999999998</v>
-      </c>
-      <c r="F11" s="36">
-        <v>0.40610000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="33" t="s">
+      <c r="D10" s="18">
+        <v>0.47510000000000002</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.43959999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="28">
-        <v>1</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18">
         <v>0.90549999999999997</v>
       </c>
-      <c r="D12" s="28">
-        <v>0.94510000000000005</v>
-      </c>
-      <c r="E12" s="28">
-        <v>0.9556</v>
-      </c>
-      <c r="F12" s="34">
-        <v>0.81620000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="35" t="s">
+      <c r="D11" s="18">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.93110000000000004</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0.7954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="29">
-        <v>1</v>
-      </c>
-      <c r="C13" s="29">
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="19">
         <v>0.99939999999999996</v>
       </c>
-      <c r="D13" s="29">
-        <v>0.82230000000000003</v>
-      </c>
-      <c r="E13" s="29">
-        <v>0.85060000000000002</v>
-      </c>
-      <c r="F13" s="36">
-        <v>0.67889999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="33" t="s">
+      <c r="D12" s="19">
+        <v>0.81679999999999997</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.84309999999999996</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.6744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="28">
-        <v>1</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18">
         <v>0.99890000000000001</v>
       </c>
-      <c r="D14" s="28">
-        <v>0.85429999999999995</v>
-      </c>
-      <c r="E14" s="28">
-        <v>0.92920000000000003</v>
-      </c>
-      <c r="F14" s="34">
-        <v>0.77159999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="35" t="s">
+      <c r="D13" s="18">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0.76639999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="29">
-        <v>1</v>
-      </c>
-      <c r="C15" s="29">
+      <c r="B14" s="19">
+        <v>1</v>
+      </c>
+      <c r="C14" s="19">
         <v>0.99939999999999996</v>
       </c>
-      <c r="D15" s="29">
-        <v>0.87260000000000004</v>
-      </c>
-      <c r="E15" s="29">
-        <v>0.89490000000000003</v>
-      </c>
-      <c r="F15" s="36">
-        <v>0.7278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="28">
-        <v>1</v>
-      </c>
-      <c r="C16" s="28">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="D16" s="28">
-        <v>0.54490000000000005</v>
-      </c>
-      <c r="E16" s="28">
-        <v>0.58379999999999999</v>
-      </c>
-      <c r="F16" s="34">
-        <v>0.48280000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="35" t="s">
+      <c r="D14" s="19">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0.69369999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="29">
-        <v>1</v>
-      </c>
-      <c r="C17" s="29">
+      <c r="B15" s="19">
+        <v>1</v>
+      </c>
+      <c r="C15" s="19">
         <v>0.99760000000000004</v>
       </c>
-      <c r="D17" s="29">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="E17" s="29">
-        <v>0.93669999999999998</v>
-      </c>
-      <c r="F17" s="36">
-        <v>0.8034</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="33" t="s">
+      <c r="D15" s="19">
+        <v>0.80579999999999996</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0.76980000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="28">
-        <v>1</v>
-      </c>
-      <c r="C18" s="28">
+      <c r="B16" s="18">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18">
         <v>0.99839999999999995</v>
       </c>
-      <c r="D18" s="28">
-        <v>0.7298</v>
-      </c>
-      <c r="E18" s="28">
-        <v>0.75070000000000003</v>
-      </c>
-      <c r="F18" s="34">
-        <v>0.67169999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="35" t="s">
+      <c r="D16" s="18">
+        <v>0.67720000000000002</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.6885</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0.62329999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="29">
-        <v>1</v>
-      </c>
-      <c r="C19" s="29">
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="19">
         <v>0.99890000000000001</v>
       </c>
-      <c r="D19" s="29">
-        <v>0.8861</v>
-      </c>
-      <c r="E19" s="29">
-        <v>0.91359999999999997</v>
-      </c>
-      <c r="F19" s="36">
-        <v>0.80520000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="33" t="s">
+      <c r="D17" s="19">
+        <v>0.82940000000000003</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0.85670000000000002</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0.75370000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="28">
-        <v>1</v>
-      </c>
-      <c r="C20" s="28">
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18">
         <v>0.99960000000000004</v>
       </c>
-      <c r="D20" s="28">
-        <v>0.61809999999999998</v>
-      </c>
-      <c r="E20" s="28">
-        <v>0.68579999999999997</v>
-      </c>
-      <c r="F20" s="34">
-        <v>0.53500000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="35" t="s">
+      <c r="D18" s="18">
+        <v>0.49220000000000003</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.55359999999999998</v>
+      </c>
+      <c r="F18" s="24">
+        <v>0.42609999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="29">
-        <v>1</v>
-      </c>
-      <c r="C21" s="29">
+      <c r="B19" s="19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="19">
         <v>0.99970000000000003</v>
       </c>
-      <c r="D21" s="29">
-        <v>0.72460000000000002</v>
-      </c>
-      <c r="E21" s="29">
+      <c r="D19" s="19">
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0.4602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="18">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.82340000000000002</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0.85819999999999996</v>
+      </c>
+      <c r="F20" s="24">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0.8538</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0.71819999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="18">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0.51429999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="19">
+        <v>1</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0.56420000000000003</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0.60140000000000005</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0.47660000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="18">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="F24" s="24">
+        <v>0.72250000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="19">
+        <v>1</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0.77139999999999997</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0.79830000000000001</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="18">
+        <v>1</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0.56869999999999998</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.70489999999999997</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="19">
+        <v>1</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0.61950000000000005</v>
+      </c>
+      <c r="E27" s="19">
         <v>0.75129999999999997</v>
       </c>
-      <c r="F21" s="36">
-        <v>0.60350000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="28">
-        <v>1</v>
-      </c>
-      <c r="C22" s="28">
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="D22" s="28">
-        <v>0.90880000000000005</v>
-      </c>
-      <c r="E22" s="28">
-        <v>0.94610000000000005</v>
-      </c>
-      <c r="F22" s="34">
-        <v>0.80020000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="29">
-        <v>1</v>
-      </c>
-      <c r="C23" s="29">
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="D23" s="29">
-        <v>0.89839999999999998</v>
-      </c>
-      <c r="E23" s="29">
-        <v>0.92759999999999998</v>
-      </c>
-      <c r="F23" s="36">
-        <v>0.75560000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="28">
-        <v>1</v>
-      </c>
-      <c r="C24" s="28">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="D24" s="28">
-        <v>0.83220000000000005</v>
-      </c>
-      <c r="E24" s="28">
-        <v>0.90910000000000002</v>
-      </c>
-      <c r="F24" s="34">
-        <v>0.52449999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="29">
-        <v>1</v>
-      </c>
-      <c r="C25" s="29">
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="D25" s="29">
-        <v>0.83740000000000003</v>
-      </c>
-      <c r="E25" s="29">
-        <v>0.87609999999999999</v>
-      </c>
-      <c r="F25" s="36">
-        <v>0.70730000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="28">
-        <v>1</v>
-      </c>
-      <c r="C26" s="28">
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="D26" s="28">
-        <v>0.90510000000000002</v>
-      </c>
-      <c r="E26" s="28">
-        <v>0.95040000000000002</v>
-      </c>
-      <c r="F26" s="34">
-        <v>0.74870000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="29">
-        <v>1</v>
-      </c>
-      <c r="C27" s="29">
-        <v>0.99939999999999996</v>
-      </c>
-      <c r="D27" s="29">
-        <v>0.90280000000000005</v>
-      </c>
-      <c r="E27" s="29">
-        <v>0.93259999999999998</v>
-      </c>
-      <c r="F27" s="36">
-        <v>0.8135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="28">
-        <v>0.99929999999999997</v>
-      </c>
-      <c r="D28" s="28">
-        <v>0.61070000000000002</v>
-      </c>
-      <c r="E28" s="28">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="F28" s="34">
-        <v>0.53149999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="29">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="D29" s="29">
-        <v>0.70350000000000001</v>
-      </c>
-      <c r="E29" s="29">
-        <v>0.83940000000000003</v>
-      </c>
-      <c r="F29" s="36">
-        <v>0.59840000000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="33" t="s">
+      <c r="F27" s="26">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="28">
-        <v>1</v>
-      </c>
-      <c r="C30" s="28">
+      <c r="B28" s="18">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18">
         <v>0.99960000000000004</v>
       </c>
-      <c r="D30" s="28">
-        <v>0.66</v>
-      </c>
-      <c r="E30" s="28">
-        <v>0.73440000000000005</v>
-      </c>
-      <c r="F30" s="34">
-        <v>0.56179999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="38">
-        <v>1</v>
-      </c>
-      <c r="C31" s="38">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="D31" s="38">
-        <v>0.33850000000000002</v>
-      </c>
-      <c r="E31" s="38">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="F31" s="39">
-        <v>0.27779999999999999</v>
+      <c r="D28" s="18">
+        <v>0.54749999999999999</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0.60460000000000003</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0.46610000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4562,11 +4518,11 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D57488-40EB-9C4B-B414-2ED3975E9F6E}">
   <dimension ref="B3:N33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="J12:N13"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N9" sqref="I4:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.1640625" customWidth="1"/>
@@ -4578,17 +4534,17 @@
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C3" s="10"/>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C4" s="10"/>
       <c r="D4" s="15" t="s">
         <v>36</v>
@@ -4617,11 +4573,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34"/>
       <c r="D5" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!B3,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!B4,"0,000")&amp;""</f>
         <v>1,000 ± 0,000</v>
@@ -4639,10 +4595,10 @@
         <v>1,000 ± 0,000</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="I5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19"/>
+      <c r="I5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="34"/>
       <c r="K5" s="9" t="str">
         <f>""&amp;TEXT('General stats'!B3,"0,000")&amp;" ± "&amp;TEXT('General stats'!B4,"0,000")&amp;""</f>
         <v>1,000 ± 0,000</v>
@@ -4660,11 +4616,11 @@
         <v>1,000 ± 0,000</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!C3,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!C4,"0,000")&amp;""</f>
         <v>0,990 ± 0,020</v>
@@ -4679,13 +4635,13 @@
       </c>
       <c r="G6" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!C18,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!C19,"0,000")&amp;""</f>
-        <v>0,990 ± 0,020</v>
+        <v>0,989 ± 0,021</v>
       </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="34"/>
       <c r="K6" s="9" t="str">
         <f>""&amp;TEXT('General stats'!C3,"0,000")&amp;" ± "&amp;TEXT('General stats'!C4,"0,000")&amp;""</f>
         <v>0,993 ± 0,020</v>
@@ -4700,139 +4656,139 @@
       </c>
       <c r="N6" s="9" t="str">
         <f>""&amp;TEXT('General stats'!C18,"0,000")&amp;" ± "&amp;TEXT('General stats'!C19,"0,000")&amp;""</f>
-        <v>0,993 ± 0,020</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="18" t="s">
+        <v>0,992 ± 0,021</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!D3,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!D4,"0,000")&amp;""</f>
-        <v>0,576 ± 0,060</v>
+        <v>0,504 ± 0,109</v>
       </c>
       <c r="E7" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!D8,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!D9,"0,000")&amp;""</f>
-        <v>0,551 ± 0,060</v>
+        <v>0,485 ± 0,101</v>
       </c>
       <c r="F7" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!D13,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!D14,"0,000")&amp;""</f>
-        <v>0,673 ± 0,085</v>
+        <v>0,623 ± 0,159</v>
       </c>
       <c r="G7" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!D18,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!D19,"0,000")&amp;""</f>
-        <v>0,616 ± 0,106</v>
+        <v>0,544 ± 0,110</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="34"/>
       <c r="K7" s="9" t="str">
         <f>""&amp;TEXT('General stats'!D3,"0,000")&amp;" ± "&amp;TEXT('General stats'!D4,"0,000")&amp;""</f>
-        <v>0,745 ± 0,170</v>
+        <v>0,654 ± 0,215</v>
       </c>
       <c r="L7" s="9" t="str">
         <f>""&amp;TEXT('General stats'!D8,"0,000")&amp;" ± "&amp;TEXT('General stats'!D9,"0,000")&amp;""</f>
-        <v>0,733 ± 0,171</v>
+        <v>0,643 ± 0,216</v>
       </c>
       <c r="M7" s="9" t="str">
         <f>""&amp;TEXT('General stats'!D13,"0,000")&amp;" ± "&amp;TEXT('General stats'!D14,"0,000")&amp;""</f>
-        <v>0,705 ± 0,138</v>
+        <v>0,626 ± 0,208</v>
       </c>
       <c r="N7" s="9" t="str">
         <f>""&amp;TEXT('General stats'!D18,"0,000")&amp;" ± "&amp;TEXT('General stats'!D19,"0,000")&amp;""</f>
-        <v>0,720 ± 0,157</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="20" t="s">
+        <v>0,671 ± 0,157</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!E3,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!E4,"0,000")&amp;""</f>
-        <v>0,712 ± 0,054</v>
+        <v>0,624 ± 0,114</v>
       </c>
       <c r="E8" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!E8,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!E9,"0,000")&amp;""</f>
-        <v>0,662 ± 0,058</v>
+        <v>0,583 ± 0,111</v>
       </c>
       <c r="F8" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!E13,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!E14,"0,000")&amp;""</f>
-        <v>0,706 ± 0,055</v>
+        <v>0,639 ± 0,147</v>
       </c>
       <c r="G8" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!E18,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!E19,"0,000")&amp;""</f>
-        <v>0,732 ± 0,097</v>
+        <v>0,643 ± 0,097</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="9" t="str">
         <f>""&amp;TEXT('General stats'!E3,"0,000")&amp;" ± "&amp;TEXT('General stats'!E4,"0,000")&amp;""</f>
-        <v>0,823 ± 0,117</v>
+        <v>0,722 ± 0,189</v>
       </c>
       <c r="L8" s="9" t="str">
         <f>""&amp;TEXT('General stats'!E8,"0,000")&amp;" ± "&amp;TEXT('General stats'!E9,"0,000")&amp;""</f>
-        <v>0,795 ± 0,130</v>
+        <v>0,697 ± 0,196</v>
       </c>
       <c r="M8" s="9" t="str">
         <f>""&amp;TEXT('General stats'!E13,"0,000")&amp;" ± "&amp;TEXT('General stats'!E14,"0,000")&amp;""</f>
-        <v>0,750 ± 0,116</v>
+        <v>0,659 ± 0,202</v>
       </c>
       <c r="N8" s="9" t="str">
         <f>""&amp;TEXT('General stats'!E18,"0,000")&amp;" ± "&amp;TEXT('General stats'!E19,"0,000")&amp;""</f>
-        <v>0,801 ± 0,122</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="18" t="s">
+        <v>0,738 ± 0,137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!F3,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!F4,"0,000")&amp;""</f>
-        <v>0,552 ± 0,063</v>
+        <v>0,484 ± 0,109</v>
       </c>
       <c r="E9" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!F8,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!F9,"0,000")&amp;""</f>
-        <v>0,527 ± 0,058</v>
+        <v>0,465 ± 0,100</v>
       </c>
       <c r="F9" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!F13,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!F14,"0,000")&amp;""</f>
-        <v>0,668 ± 0,099</v>
+        <v>0,622 ± 0,163</v>
       </c>
       <c r="G9" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!F18,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!F19,"0,000")&amp;""</f>
-        <v>0,591 ± 0,109</v>
+        <v>0,524 ± 0,109</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="19"/>
+      <c r="J9" s="34"/>
       <c r="K9" s="9" t="str">
         <f>""&amp;TEXT('General stats'!F3,"0,000")&amp;" ± "&amp;TEXT('General stats'!F4,"0,000")&amp;""</f>
-        <v>0,658 ± 0,137</v>
+        <v>0,578 ± 0,181</v>
       </c>
       <c r="L9" s="9" t="str">
         <f>""&amp;TEXT('General stats'!F8,"0,000")&amp;" ± "&amp;TEXT('General stats'!F9,"0,000")&amp;""</f>
-        <v>0,646 ± 0,133</v>
+        <v>0,567 ± 0,179</v>
       </c>
       <c r="M9" s="9" t="str">
         <f>""&amp;TEXT('General stats'!F13,"0,000")&amp;" ± "&amp;TEXT('General stats'!F14,"0,000")&amp;""</f>
-        <v>0,690 ± 0,145</v>
+        <v>0,622 ± 0,200</v>
       </c>
       <c r="N9" s="9" t="str">
         <f>""&amp;TEXT('General stats'!F18,"0,000")&amp;" ± "&amp;TEXT('General stats'!F19,"0,000")&amp;""</f>
-        <v>0,638 ± 0,135</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
+        <v>0,593 ± 0,130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -4841,16 +4797,16 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="2:14">
-      <c r="D11" s="22" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D11" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C12" s="10"/>
       <c r="D12" s="15" t="s">
         <v>36</v>
@@ -4878,11 +4834,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="19"/>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="34"/>
       <c r="D13" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!B3,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!B4,"0,000")&amp;""</f>
         <v>1,000 ± 0,000</v>
@@ -4915,11 +4871,11 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!C3,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!C4,"0,000")&amp;""</f>
         <v>0,990 ± 0,030</v>
@@ -4934,84 +4890,113 @@
       </c>
       <c r="G14" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!C18,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!C19,"0,000")&amp;""</f>
-        <v>0,990 ± 0,030</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="18" t="s">
+        <v>0,989 ± 0,031</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!D3,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!D4,"0,000")&amp;""</f>
-        <v>0,866 ± 0,075</v>
+        <v>0,737 ± 0,231</v>
       </c>
       <c r="E15" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!D8,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!D9,"0,000")&amp;""</f>
-        <v>0,833 ± 0,080</v>
+        <v>0,714 ± 0,229</v>
       </c>
       <c r="F15" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!D13,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!D14,"0,000")&amp;""</f>
-        <v>0,776 ± 0,137</v>
+        <v>0,663 ± 0,276</v>
       </c>
       <c r="G15" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!D18,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!D19,"0,000")&amp;""</f>
-        <v>0,784 ± 0,127</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="18" t="s">
+        <v>0,753 ± 0,146</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!E3,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!E4,"0,000")&amp;""</f>
-        <v>0,888 ± 0,079</v>
+        <v>0,757 ± 0,240</v>
       </c>
       <c r="E16" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!E8,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!E9,"0,000")&amp;""</f>
-        <v>0,862 ± 0,076</v>
+        <v>0,738 ± 0,236</v>
       </c>
       <c r="F16" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!E13,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!E14,"0,000")&amp;""</f>
-        <v>0,798 ± 0,117</v>
+        <v>0,675 ± 0,274</v>
       </c>
       <c r="G16" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!E18,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!E19,"0,000")&amp;""</f>
-        <v>0,825 ± 0,126</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="18" t="s">
+        <v>0,791 ± 0,148</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!F3,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!F4,"0,000")&amp;""</f>
-        <v>0,761 ± 0,071</v>
+        <v>0,650 ± 0,209</v>
       </c>
       <c r="E17" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!F8,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!F9,"0,000")&amp;""</f>
-        <v>0,732 ± 0,072</v>
+        <v>0,629 ± 0,205</v>
       </c>
       <c r="F17" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!F13,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!F14,"0,000")&amp;""</f>
-        <v>0,771 ± 0,145</v>
+        <v>0,673 ± 0,267</v>
       </c>
       <c r="G17" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!F18,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!F19,"0,000")&amp;""</f>
-        <v>0,690 ± 0,118</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="D19" s="22" t="s">
+        <v>0,663 ± 0,136</v>
+      </c>
+      <c r="K17" s="40">
+        <f>'General stats'!E3-'General stats'!D3</f>
+        <v>6.7433333333333345E-2</v>
+      </c>
+      <c r="L17" s="40">
+        <f>'General stats'!E8-'General stats'!D8</f>
+        <v>5.3613333333333513E-2</v>
+      </c>
+      <c r="M17" s="40">
+        <f>'General stats'!E13-'General stats'!D13</f>
+        <v>3.2653333333333534E-2</v>
+      </c>
+      <c r="N17" s="40">
+        <f>'General stats'!E18-'General stats'!D18</f>
+        <v>6.695185185185204E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D19" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
       <c r="D20" s="7" t="s">
         <v>36</v>
@@ -5026,11 +5011,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="19"/>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="34"/>
       <c r="D21" s="9" t="str">
         <f>""&amp;TEXT('Stats Density'!B3,"0,000")&amp;" ± "&amp;TEXT('Stats Density'!B4,"0,000")&amp;""</f>
         <v>1,000 ± 0,000</v>
@@ -5048,11 +5033,11 @@
         <v>1,000 ± 0,000</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="18" t="s">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="9" t="str">
         <f>""&amp;TEXT('Stats Density'!C3,"0,000")&amp;" ± "&amp;TEXT('Stats Density'!C4,"0,000")&amp;""</f>
         <v>1,000 ± 0,000</v>
@@ -5070,81 +5055,81 @@
         <v>1,000 ± 0,000</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="18" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="9" t="str">
         <f>""&amp;TEXT('Stats Density'!D3,"0,000")&amp;" ± "&amp;TEXT('Stats Density'!D4,"0,000")&amp;""</f>
-        <v>0,899 ± 0,049</v>
+        <v>0,841 ± 0,097</v>
       </c>
       <c r="E23" s="9" t="str">
         <f>""&amp;TEXT('Stats Density'!D8,"0,000")&amp;" ± "&amp;TEXT('Stats Density'!D9,"0,000")&amp;""</f>
-        <v>0,922 ± 0,037</v>
+        <v>0,860 ± 0,090</v>
       </c>
       <c r="F23" s="9" t="str">
         <f>""&amp;TEXT('Stats Density'!D13,"0,000")&amp;" ± "&amp;TEXT('Stats Density'!D14,"0,000")&amp;""</f>
-        <v>0,730 ± 0,145</v>
+        <v>0,670 ± 0,133</v>
       </c>
       <c r="G23" s="9" t="str">
         <f>""&amp;TEXT('Stats Density'!D18,"0,000")&amp;" ± "&amp;TEXT('Stats Density'!D19,"0,000")&amp;""</f>
-        <v>0,881 ± 0,036</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="20" t="s">
+        <v>0,784 ± 0,113</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="9" t="str">
         <f>""&amp;TEXT('Stats Density'!E3,"0,000")&amp;" ± "&amp;TEXT('Stats Density'!E4,"0,000")&amp;""</f>
-        <v>0,939 ± 0,029</v>
+        <v>0,878 ± 0,086</v>
       </c>
       <c r="E24" s="9" t="str">
         <f>""&amp;TEXT('Stats Density'!E8,"0,000")&amp;" ± "&amp;TEXT('Stats Density'!E9,"0,000")&amp;""</f>
-        <v>0,942 ± 0,025</v>
+        <v>0,879 ± 0,082</v>
       </c>
       <c r="F24" s="9" t="str">
         <f>""&amp;TEXT('Stats Density'!E13,"0,000")&amp;" ± "&amp;TEXT('Stats Density'!E14,"0,000")&amp;""</f>
-        <v>0,830 ± 0,102</v>
+        <v>0,760 ± 0,117</v>
       </c>
       <c r="G24" s="9" t="str">
         <f>""&amp;TEXT('Stats Density'!E18,"0,000")&amp;" ± "&amp;TEXT('Stats Density'!E19,"0,000")&amp;""</f>
-        <v>0,924 ± 0,028</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="18" t="s">
+        <v>0,824 ± 0,116</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="9" t="str">
         <f>""&amp;TEXT('Stats Density'!F3,"0,000")&amp;" ± "&amp;TEXT('Stats Density'!F4,"0,000")&amp;""</f>
-        <v>0,739 ± 0,107</v>
+        <v>0,691 ± 0,119</v>
       </c>
       <c r="E25" s="9" t="str">
         <f>""&amp;TEXT('Stats Density'!F8,"0,000")&amp;" ± "&amp;TEXT('Stats Density'!F9,"0,000")&amp;""</f>
-        <v>0,758 ± 0,102</v>
+        <v>0,706 ± 0,113</v>
       </c>
       <c r="F25" s="9" t="str">
         <f>""&amp;TEXT('Stats Density'!F13,"0,000")&amp;" ± "&amp;TEXT('Stats Density'!F14,"0,000")&amp;""</f>
-        <v>0,680 ± 0,173</v>
+        <v>0,629 ± 0,143</v>
       </c>
       <c r="G25" s="9" t="str">
         <f>""&amp;TEXT('Stats Density'!F18,"0,000")&amp;" ± "&amp;TEXT('Stats Density'!F19,"0,000")&amp;""</f>
-        <v>0,725 ± 0,105</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="D27" s="22" t="s">
+        <v>0,642 ± 0,115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D27" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C28" s="10"/>
       <c r="D28" s="7" t="s">
         <v>36</v>
@@ -5159,11 +5144,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="19"/>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="34"/>
       <c r="D29" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!B3,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!B4,"0,000")&amp;""</f>
         <v>1,000 ± 0,000</v>
@@ -5181,11 +5166,11 @@
         <v>1,000 ± 0,000</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="18" t="s">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="19"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!C3,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!C4,"0,000")&amp;""</f>
         <v>0,999 ± 0,000</v>
@@ -5203,83 +5188,79 @@
         <v>0,999 ± 0,000</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="18" t="s">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!D3,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!D4,"0,000")&amp;""</f>
-        <v>0,638 ± 0,200</v>
+        <v>0,544 ± 0,221</v>
       </c>
       <c r="E31" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!D8,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!D9,"0,000")&amp;""</f>
-        <v>0,655 ± 0,163</v>
+        <v>0,536 ± 0,198</v>
       </c>
       <c r="F31" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!D13,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!D14,"0,000")&amp;""</f>
-        <v>0,570 ± 0,161</v>
+        <v>0,478 ± 0,216</v>
       </c>
       <c r="G31" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!D18,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!D19,"0,000")&amp;""</f>
-        <v>0,578 ± 0,164</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="20" t="s">
+        <v>0,579 ± 0,037</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="21"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!E3,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!E4,"0,000")&amp;""</f>
-        <v>0,761 ± 0,127</v>
+        <v>0,643 ± 0,173</v>
       </c>
       <c r="E32" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!E8,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!E9,"0,000")&amp;""</f>
-        <v>0,739 ± 0,120</v>
+        <v>0,604 ± 0,175</v>
       </c>
       <c r="F32" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!E13,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!E14,"0,000")&amp;""</f>
-        <v>0,618 ± 0,114</v>
+        <v>0,517 ± 0,176</v>
       </c>
       <c r="G32" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!E18,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!E19,"0,000")&amp;""</f>
-        <v>0,731 ± 0,109</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="18" t="s">
+        <v>0,687 ± 0,075</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="19"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!F3,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!F4,"0,000")&amp;""</f>
-        <v>0,544 ± 0,176</v>
+        <v>0,464 ± 0,193</v>
       </c>
       <c r="E33" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!F8,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!F9,"0,000")&amp;""</f>
-        <v>0,557 ± 0,147</v>
+        <v>0,458 ± 0,175</v>
       </c>
       <c r="F33" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!F13,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!F14,"0,000")&amp;""</f>
-        <v>0,561 ± 0,120</v>
+        <v>0,484 ± 0,155</v>
       </c>
       <c r="G33" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!F18,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!F19,"0,000")&amp;""</f>
-        <v>0,492 ± 0,146</v>
+        <v>0,496 ± 0,030</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D11:G11"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="B33:C33"/>
@@ -5295,11 +5276,15 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5313,7 +5298,7 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -5328,16 +5313,16 @@
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5354,7 +5339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -5368,18 +5353,18 @@
       </c>
       <c r="D3" s="11">
         <f>AVERAGE(yinfft_stats!D2:D31)</f>
-        <v>0.74527666666666681</v>
+        <v>0.65418666666666669</v>
       </c>
       <c r="E3" s="11">
         <f>AVERAGE(yinfft_stats!E2:E31)</f>
-        <v>0.82256999999999991</v>
+        <v>0.72162000000000004</v>
       </c>
       <c r="F3" s="11">
         <f>AVERAGE(yinfft_stats!F2:F31)</f>
-        <v>0.65790666666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.57789999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -5393,27 +5378,27 @@
       </c>
       <c r="D4" s="12">
         <f>STDEV(yinfft_stats!D2:D31)</f>
-        <v>0.1695692040260342</v>
+        <v>0.21453935051533146</v>
       </c>
       <c r="E4" s="12">
         <f>STDEV(yinfft_stats!E2:E31)</f>
-        <v>0.11669411281430411</v>
+        <v>0.18945236213159591</v>
       </c>
       <c r="F4" s="12">
         <f>STDEV(yinfft_stats!F2:F31)</f>
-        <v>0.13671401798149227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="25" t="s">
+        <v>0.18109019280743627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
@@ -5430,7 +5415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -5444,18 +5429,18 @@
       </c>
       <c r="D8" s="11">
         <f>AVERAGE(yin_stats!D2:D31)</f>
-        <v>0.73271999999999993</v>
+        <v>0.64304333333333341</v>
       </c>
       <c r="E8" s="11">
         <f>AVERAGE(yin_stats!E2:E31)</f>
-        <v>0.79504333333333321</v>
+        <v>0.69665666666666692</v>
       </c>
       <c r="F8" s="11">
         <f>AVERAGE(yin_stats!F2:F31)</f>
-        <v>0.64554333333333325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.56707333333333321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -5469,30 +5454,30 @@
       </c>
       <c r="D9" s="12">
         <f>STDEV(yin_stats!D2:D31)</f>
-        <v>0.17068417780135414</v>
+        <v>0.21584895530381212</v>
       </c>
       <c r="E9" s="12">
         <f>STDEV(yin_stats!E2:E31)</f>
-        <v>0.13036458341587925</v>
+        <v>0.19615709341966295</v>
       </c>
       <c r="F9" s="12">
         <f>STDEV(yin_stats!F2:F31)</f>
-        <v>0.13314482051467569</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.17903759561521804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="25" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
@@ -5509,7 +5494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -5523,18 +5508,18 @@
       </c>
       <c r="D13" s="11">
         <f>AVERAGE(melodia_stats!D2:D31)</f>
-        <v>0.70507333333333333</v>
+        <v>0.62649666666666659</v>
       </c>
       <c r="E13" s="11">
         <f>AVERAGE(melodia_stats!E2:E31)</f>
-        <v>0.74957666666666678</v>
+        <v>0.65915000000000012</v>
       </c>
       <c r="F13" s="11">
         <f>AVERAGE(melodia_stats!F2:F31)</f>
-        <v>0.69047666666666652</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.62184666666666688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -5548,27 +5533,27 @@
       </c>
       <c r="D14" s="12">
         <f>STDEV(melodia_stats!D2:D31)</f>
-        <v>0.13834338071807331</v>
+        <v>0.20795199625665173</v>
       </c>
       <c r="E14" s="12">
         <f>STDEV(melodia_stats!E2:E31)</f>
-        <v>0.11598418941994754</v>
+        <v>0.20172000182909722</v>
       </c>
       <c r="F14" s="12">
         <f>STDEV(melodia_stats!F2:F31)</f>
-        <v>0.14464844346000647</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="25" t="s">
+        <v>0.199754704287677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
@@ -5585,54 +5570,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="11">
-        <f>AVERAGE(hps_stats!B2:B31)</f>
+        <f>AVERAGE(hps_stats!B2:B28)</f>
         <v>1</v>
       </c>
       <c r="C18" s="11">
-        <f>AVERAGE(hps_stats!C2:C31)</f>
-        <v>0.99299000000000026</v>
+        <f>AVERAGE(hps_stats!C2:C28)</f>
+        <v>0.99234074074074108</v>
       </c>
       <c r="D18" s="11">
-        <f>AVERAGE(hps_stats!D2:D31)</f>
-        <v>0.71981333333333331</v>
+        <f>AVERAGE(hps_stats!D2:D28)</f>
+        <v>0.67060370370370359</v>
       </c>
       <c r="E18" s="11">
-        <f>AVERAGE(hps_stats!E2:E31)</f>
-        <v>0.80123999999999995</v>
+        <f>AVERAGE(hps_stats!E2:E28)</f>
+        <v>0.73755555555555563</v>
       </c>
       <c r="F18" s="11">
-        <f>AVERAGE(hps_stats!F2:F31)</f>
-        <v>0.63751333333333338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <f>AVERAGE(hps_stats!F2:F28)</f>
+        <v>0.59333333333333327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="13">
-        <f>STDEV(hps_stats!B2:B31)</f>
+        <f>STDEV(hps_stats!B2:B28)</f>
         <v>0</v>
       </c>
       <c r="C19" s="13">
-        <f>STDEV(hps_stats!C2:C31)</f>
-        <v>2.0402203227880181E-2</v>
+        <f>STDEV(hps_stats!C2:C28)</f>
+        <v>2.1444925152931057E-2</v>
       </c>
       <c r="D19" s="13">
-        <f>STDEV(hps_stats!D2:D31)</f>
-        <v>0.15729352252996662</v>
+        <f>STDEV(hps_stats!D2:D28)</f>
+        <v>0.15712702230870843</v>
       </c>
       <c r="E19" s="13">
-        <f>STDEV(hps_stats!E2:E31)</f>
-        <v>0.12163830102341215</v>
+        <f>STDEV(hps_stats!E2:E28)</f>
+        <v>0.13699286430976945</v>
       </c>
       <c r="F19" s="13">
-        <f>STDEV(hps_stats!F2:F31)</f>
-        <v>0.13521410284876079</v>
+        <f>STDEV(hps_stats!F2:F28)</f>
+        <v>0.12994700695046657</v>
       </c>
     </row>
   </sheetData>
@@ -5655,7 +5640,7 @@
       <selection activeCell="H2" sqref="H2:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -5670,16 +5655,16 @@
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5696,7 +5681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -5710,18 +5695,18 @@
       </c>
       <c r="D3" s="11">
         <f>AVERAGE(yinfft_stats!D2:D11)</f>
-        <v>0.57592999999999994</v>
+        <v>0.50359999999999994</v>
       </c>
       <c r="E3" s="11">
         <f>AVERAGE(yinfft_stats!E2:E11)</f>
-        <v>0.7124100000000001</v>
+        <v>0.62421000000000004</v>
       </c>
       <c r="F3" s="11">
         <f>AVERAGE(yinfft_stats!F2:F11)</f>
-        <v>0.55205000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.48385000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -5735,27 +5720,27 @@
       </c>
       <c r="D4" s="12">
         <f>STDEV(yinfft_stats!D2:D11)</f>
-        <v>5.9910897728766052E-2</v>
+        <v>0.10864269674283501</v>
       </c>
       <c r="E4" s="12">
         <f>STDEV(yinfft_stats!E2:E11)</f>
-        <v>5.4159649801920499E-2</v>
+        <v>0.11358330716556285</v>
       </c>
       <c r="F4" s="12">
         <f>STDEV(yinfft_stats!F2:F11)</f>
-        <v>6.3212362539125044E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="25" t="s">
+        <v>0.10906543652525498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
@@ -5772,7 +5757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -5786,18 +5771,18 @@
       </c>
       <c r="D8" s="11">
         <f>AVERAGE(yin_stats!D2:D11)</f>
-        <v>0.55074999999999996</v>
+        <v>0.48471999999999998</v>
       </c>
       <c r="E8" s="11">
         <f>AVERAGE(yin_stats!E2:E11)</f>
-        <v>0.66223999999999994</v>
+        <v>0.58333000000000002</v>
       </c>
       <c r="F8" s="11">
         <f>AVERAGE(yin_stats!F2:F11)</f>
-        <v>0.52737000000000012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.46536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -5811,30 +5796,30 @@
       </c>
       <c r="D9" s="12">
         <f>STDEV(yin_stats!D2:D11)</f>
-        <v>5.9593889507790689E-2</v>
+        <v>0.10056275873525176</v>
       </c>
       <c r="E9" s="12">
         <f>STDEV(yin_stats!E2:E11)</f>
-        <v>5.818190249362578E-2</v>
+        <v>0.1107254567738503</v>
       </c>
       <c r="F9" s="12">
         <f>STDEV(yin_stats!F2:F11)</f>
-        <v>5.8058496363581215E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>9.9827809529988071E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="25" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
@@ -5851,7 +5836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -5865,18 +5850,18 @@
       </c>
       <c r="D13" s="11">
         <f>AVERAGE(melodia_stats!D2:D11)</f>
-        <v>0.67312000000000005</v>
+        <v>0.62322</v>
       </c>
       <c r="E13" s="11">
         <f>AVERAGE(melodia_stats!E2:E11)</f>
-        <v>0.70633000000000001</v>
+        <v>0.63931999999999989</v>
       </c>
       <c r="F13" s="11">
         <f>AVERAGE(melodia_stats!F2:F11)</f>
-        <v>0.66847999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.62193000000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -5890,27 +5875,27 @@
       </c>
       <c r="D14" s="12">
         <f>STDEV(melodia_stats!D2:D11)</f>
-        <v>8.4618067416676365E-2</v>
+        <v>0.1592684233194599</v>
       </c>
       <c r="E14" s="12">
         <f>STDEV(melodia_stats!E2:E11)</f>
-        <v>5.4880436708660892E-2</v>
+        <v>0.14660408361752214</v>
       </c>
       <c r="F14" s="12">
         <f>STDEV(melodia_stats!F2:F11)</f>
-        <v>9.8579722954459117E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="25" t="s">
+        <v>0.16346831191396075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
@@ -5927,54 +5912,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="11">
-        <f>AVERAGE(hps_stats!B2:B11)</f>
+        <f>AVERAGE(hps_stats!B2:B10)</f>
         <v>1</v>
       </c>
       <c r="C18" s="11">
-        <f>AVERAGE(hps_stats!C2:C11)</f>
-        <v>0.98992000000000002</v>
+        <f>AVERAGE(hps_stats!C2:C10)</f>
+        <v>0.98898888888888892</v>
       </c>
       <c r="D18" s="11">
-        <f>AVERAGE(hps_stats!D2:D11)</f>
-        <v>0.61581999999999992</v>
+        <f>AVERAGE(hps_stats!D2:D10)</f>
+        <v>0.5437333333333334</v>
       </c>
       <c r="E18" s="11">
-        <f>AVERAGE(hps_stats!E2:E11)</f>
-        <v>0.73192999999999997</v>
+        <f>AVERAGE(hps_stats!E2:E10)</f>
+        <v>0.64318888888888892</v>
       </c>
       <c r="F18" s="11">
-        <f>AVERAGE(hps_stats!F2:F11)</f>
-        <v>0.59099999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <f>AVERAGE(hps_stats!F2:F10)</f>
+        <v>0.52414444444444441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="13">
-        <f>STDEV(hps_stats!B2:B11)</f>
+        <f>STDEV(hps_stats!B2:B10)</f>
         <v>0</v>
       </c>
       <c r="C19" s="13">
-        <f>STDEV(hps_stats!C2:C11)</f>
-        <v>1.9950817304338959E-2</v>
+        <f>STDEV(hps_stats!C2:C10)</f>
+        <v>2.0929312246490826E-2</v>
       </c>
       <c r="D19" s="13">
-        <f>STDEV(hps_stats!D2:D11)</f>
-        <v>0.10553073064804976</v>
+        <f>STDEV(hps_stats!D2:D10)</f>
+        <v>0.11036550638673318</v>
       </c>
       <c r="E19" s="13">
-        <f>STDEV(hps_stats!E2:E11)</f>
-        <v>9.6517805496072695E-2</v>
+        <f>STDEV(hps_stats!E2:E10)</f>
+        <v>9.6995869041475322E-2</v>
       </c>
       <c r="F19" s="13">
-        <f>STDEV(hps_stats!F2:F11)</f>
-        <v>0.10908959620422115</v>
+        <f>STDEV(hps_stats!F2:F10)</f>
+        <v>0.10897445929105501</v>
       </c>
     </row>
   </sheetData>
@@ -5997,7 +5982,7 @@
       <selection activeCell="H2" sqref="H2:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -6012,16 +5997,16 @@
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -6038,7 +6023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -6052,18 +6037,18 @@
       </c>
       <c r="D3" s="11">
         <f>AVERAGE(yinfft_stats!D12:D21)</f>
-        <v>0.86556</v>
+        <v>0.73670999999999998</v>
       </c>
       <c r="E3" s="11">
         <f>AVERAGE(yinfft_stats!E12:E21)</f>
-        <v>0.88775000000000015</v>
+        <v>0.75710999999999995</v>
       </c>
       <c r="F3" s="11">
         <f>AVERAGE(yinfft_stats!F12:F21)</f>
-        <v>0.7609100000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.6496099999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -6077,27 +6062,27 @@
       </c>
       <c r="D4" s="12">
         <f>STDEV(yinfft_stats!D12:D21)</f>
-        <v>7.5467597167408362E-2</v>
+        <v>0.23124071368741858</v>
       </c>
       <c r="E4" s="12">
         <f>STDEV(yinfft_stats!E12:E21)</f>
-        <v>7.9180290055880287E-2</v>
+        <v>0.24029056693003073</v>
       </c>
       <c r="F4" s="12">
         <f>STDEV(yinfft_stats!F12:F21)</f>
-        <v>7.1304752062304133E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="25" t="s">
+        <v>0.2088150774143375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
@@ -6114,7 +6099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -6128,18 +6113,18 @@
       </c>
       <c r="D8" s="11">
         <f>AVERAGE(yin_stats!D12:D21)</f>
-        <v>0.83249999999999991</v>
+        <v>0.71376000000000006</v>
       </c>
       <c r="E8" s="11">
         <f>AVERAGE(yin_stats!E12:E21)</f>
-        <v>0.86207999999999996</v>
+        <v>0.73784000000000005</v>
       </c>
       <c r="F8" s="11">
         <f>AVERAGE(yin_stats!F12:F21)</f>
-        <v>0.73168999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.62907000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -6153,30 +6138,30 @@
       </c>
       <c r="D9" s="12">
         <f>STDEV(yin_stats!D12:D21)</f>
-        <v>7.9529784776941684E-2</v>
+        <v>0.22909728258730797</v>
       </c>
       <c r="E9" s="12">
         <f>STDEV(yin_stats!E12:E21)</f>
-        <v>7.5977449870924793E-2</v>
+        <v>0.23622455982955382</v>
       </c>
       <c r="F9" s="12">
         <f>STDEV(yin_stats!F12:F21)</f>
-        <v>7.1517619429682419E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.20496243043272297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="25" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
@@ -6193,7 +6178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -6207,18 +6192,18 @@
       </c>
       <c r="D13" s="11">
         <f>AVERAGE(melodia_stats!D12:D21)</f>
-        <v>0.77632999999999996</v>
+        <v>0.66320999999999986</v>
       </c>
       <c r="E13" s="11">
         <f>AVERAGE(melodia_stats!E12:E21)</f>
-        <v>0.79754000000000003</v>
+        <v>0.67520999999999998</v>
       </c>
       <c r="F13" s="11">
         <f>AVERAGE(melodia_stats!F12:F21)</f>
-        <v>0.77066999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.67288000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -6232,27 +6217,27 @@
       </c>
       <c r="D14" s="12">
         <f>STDEV(melodia_stats!D12:D21)</f>
-        <v>0.13713024668378487</v>
+        <v>0.27567699073775154</v>
       </c>
       <c r="E14" s="12">
         <f>STDEV(melodia_stats!E12:E21)</f>
-        <v>0.11676009782645924</v>
+        <v>0.27421545644904044</v>
       </c>
       <c r="F14" s="12">
         <f>STDEV(melodia_stats!F12:F21)</f>
-        <v>0.145215197016168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="25" t="s">
+        <v>0.26662099525564548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
@@ -6269,54 +6254,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="11">
-        <f>AVERAGE(hps_stats!B12:B21)</f>
+        <f>AVERAGE(hps_stats!B11:B19)</f>
         <v>1</v>
       </c>
       <c r="C18" s="11">
-        <f>AVERAGE(hps_stats!C12:C21)</f>
-        <v>0.98965000000000014</v>
+        <f>AVERAGE(hps_stats!C11:C19)</f>
+        <v>0.98860000000000015</v>
       </c>
       <c r="D18" s="11">
-        <f>AVERAGE(hps_stats!D12:D21)</f>
-        <v>0.78388000000000002</v>
+        <f>AVERAGE(hps_stats!D11:D19)</f>
+        <v>0.75274444444444444</v>
       </c>
       <c r="E18" s="11">
-        <f>AVERAGE(hps_stats!E12:E21)</f>
-        <v>0.82522000000000006</v>
+        <f>AVERAGE(hps_stats!E11:E19)</f>
+        <v>0.79100000000000004</v>
       </c>
       <c r="F18" s="11">
-        <f>AVERAGE(hps_stats!F12:F21)</f>
-        <v>0.68960999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <f>AVERAGE(hps_stats!F11:F19)</f>
+        <v>0.66255555555555568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="13">
-        <f>STDEV(hps_stats!B12:B21)</f>
+        <f>STDEV(hps_stats!B11:B19)</f>
         <v>0</v>
       </c>
       <c r="C19" s="13">
-        <f>STDEV(hps_stats!C12:C21)</f>
-        <v>2.9573909297066419E-2</v>
+        <f>STDEV(hps_stats!C11:C19)</f>
+        <v>3.1169536409770368E-2</v>
       </c>
       <c r="D19" s="13">
-        <f>STDEV(hps_stats!D12:D21)</f>
-        <v>0.12694838671243108</v>
+        <f>STDEV(hps_stats!D11:D19)</f>
+        <v>0.14579228469908065</v>
       </c>
       <c r="E19" s="13">
-        <f>STDEV(hps_stats!E12:E21)</f>
-        <v>0.12573693702859659</v>
+        <f>STDEV(hps_stats!E11:E19)</f>
+        <v>0.14798698422496456</v>
       </c>
       <c r="F19" s="13">
-        <f>STDEV(hps_stats!F12:F21)</f>
-        <v>0.11787003624519884</v>
+        <f>STDEV(hps_stats!F11:F19)</f>
+        <v>0.13589989984461981</v>
       </c>
     </row>
   </sheetData>
@@ -6335,11 +6320,11 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEFBF5D-F7E6-874D-A701-0615731C356F}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:M7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -6354,16 +6339,16 @@
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -6380,7 +6365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -6394,18 +6379,18 @@
       </c>
       <c r="D3" s="11">
         <f>AVERAGE(yinfft_stats!D22:D27)</f>
-        <v>0.89849999999999997</v>
+        <v>0.84114999999999995</v>
       </c>
       <c r="E3" s="11">
         <f>AVERAGE(yinfft_stats!E22:E27)</f>
-        <v>0.93863333333333332</v>
+        <v>0.87753333333333339</v>
       </c>
       <c r="F3" s="11">
         <f>AVERAGE(yinfft_stats!F22:F27)</f>
-        <v>0.73888333333333334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.69090000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -6419,27 +6404,27 @@
       </c>
       <c r="D4" s="12">
         <f>STDEV(yinfft_stats!D22:D27)</f>
-        <v>4.8910407890345814E-2</v>
+        <v>9.7172892310562212E-2</v>
       </c>
       <c r="E4" s="12">
         <f>STDEV(yinfft_stats!E22:E27)</f>
-        <v>2.8673937062542829E-2</v>
+        <v>8.6321044170391423E-2</v>
       </c>
       <c r="F4" s="12">
         <f>STDEV(yinfft_stats!F22:F27)</f>
-        <v>0.10703267569609992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="25" t="s">
+        <v>0.11942202476930254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
@@ -6456,7 +6441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -6470,18 +6455,18 @@
       </c>
       <c r="D8" s="11">
         <f>AVERAGE(yin_stats!D22:D27)</f>
-        <v>0.92183333333333328</v>
+        <v>0.8602833333333334</v>
       </c>
       <c r="E8" s="11">
         <f>AVERAGE(yin_stats!E22:E27)</f>
-        <v>0.94224999999999992</v>
+        <v>0.87851666666666661</v>
       </c>
       <c r="F8" s="11">
         <f>AVERAGE(yin_stats!F22:F27)</f>
-        <v>0.75778333333333336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.70620000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -6495,30 +6480,30 @@
       </c>
       <c r="D9" s="12">
         <f>STDEV(yin_stats!D22:D27)</f>
-        <v>3.6581999216372341E-2</v>
+        <v>8.9793082510105815E-2</v>
       </c>
       <c r="E9" s="12">
         <f>STDEV(yin_stats!E22:E27)</f>
-        <v>2.4737077434490912E-2</v>
+        <v>8.2341518486524573E-2</v>
       </c>
       <c r="F9" s="12">
         <f>STDEV(yin_stats!F22:F27)</f>
-        <v>0.10246855940563641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.11294382674586466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="25" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
@@ -6535,7 +6520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -6549,18 +6534,18 @@
       </c>
       <c r="D13" s="11">
         <f>AVERAGE(melodia_stats!D22:D27)</f>
-        <v>0.72993333333333332</v>
+        <v>0.67008333333333336</v>
       </c>
       <c r="E13" s="11">
         <f>AVERAGE(melodia_stats!E22:E27)</f>
-        <v>0.82964999999999989</v>
+        <v>0.76006666666666678</v>
       </c>
       <c r="F13" s="11">
         <f>AVERAGE(melodia_stats!F22:F27)</f>
-        <v>0.68003333333333327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.62886666666666657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -6574,27 +6559,27 @@
       </c>
       <c r="D14" s="12">
         <f>STDEV(melodia_stats!D22:D27)</f>
-        <v>0.14515936988932734</v>
+        <v>0.13296093285874108</v>
       </c>
       <c r="E14" s="12">
         <f>STDEV(melodia_stats!E22:E27)</f>
-        <v>0.10157182187989071</v>
+        <v>0.11703598876698798</v>
       </c>
       <c r="F14" s="12">
         <f>STDEV(melodia_stats!F22:F27)</f>
-        <v>0.17275395991602283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="25" t="s">
+        <v>0.14252143230639661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
@@ -6611,54 +6596,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="11">
-        <f>AVERAGE(hps_stats!B22:B27)</f>
+        <f>AVERAGE(hps_stats!B20:B25)</f>
         <v>1</v>
       </c>
       <c r="C18" s="11">
-        <f>AVERAGE(hps_stats!C22:C27)</f>
+        <f>AVERAGE(hps_stats!C20:C25)</f>
         <v>0.99953333333333338</v>
       </c>
       <c r="D18" s="11">
-        <f>AVERAGE(hps_stats!D22:D27)</f>
-        <v>0.88078333333333336</v>
+        <f>AVERAGE(hps_stats!D20:D25)</f>
+        <v>0.78371666666666673</v>
       </c>
       <c r="E18" s="11">
-        <f>AVERAGE(hps_stats!E22:E27)</f>
-        <v>0.92364999999999997</v>
+        <f>AVERAGE(hps_stats!E20:E25)</f>
+        <v>0.82425000000000004</v>
       </c>
       <c r="F18" s="11">
-        <f>AVERAGE(hps_stats!F22:F27)</f>
-        <v>0.72496666666666665</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <f>AVERAGE(hps_stats!F20:F25)</f>
+        <v>0.64193333333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="13">
-        <f>STDEV(hps_stats!B22:B27)</f>
+        <f>STDEV(hps_stats!B20:B25)</f>
         <v>0</v>
       </c>
       <c r="C19" s="13">
-        <f>STDEV(hps_stats!C22:C27)</f>
+        <f>STDEV(hps_stats!C20:C25)</f>
         <v>1.3662601021280127E-4</v>
       </c>
       <c r="D19" s="13">
-        <f>STDEV(hps_stats!D22:D27)</f>
-        <v>3.5815550626322447E-2</v>
+        <f>STDEV(hps_stats!D20:D25)</f>
+        <v>0.1130641307695176</v>
       </c>
       <c r="E19" s="13">
-        <f>STDEV(hps_stats!E22:E27)</f>
-        <v>2.7524443681934803E-2</v>
+        <f>STDEV(hps_stats!E20:E25)</f>
+        <v>0.11627207317322565</v>
       </c>
       <c r="F19" s="13">
-        <f>STDEV(hps_stats!F22:F27)</f>
-        <v>0.10535546813842483</v>
+        <f>STDEV(hps_stats!F20:F25)</f>
+        <v>0.11458543828369594</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/stats.xlsx
+++ b/statistics/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliatortosa/Documents/TFG/Code/AlgorithmAnalysis/statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{448A841A-8591-9048-BB4B-F05A60C67244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6ACA9BF0-D44F-274B-8C77-F04A4238D6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="800" windowWidth="28040" windowHeight="17440" activeTab="8" xr2:uid="{35D7B741-9824-8449-880C-2CA5D85E4D9C}"/>
+    <workbookView xWindow="1080" yWindow="800" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{35D7B741-9824-8449-880C-2CA5D85E4D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="yinfft_stats" sheetId="4" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="359" uniqueCount="47">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="362" uniqueCount="47">
   <si>
     <t>Audio Fragment</t>
   </si>
@@ -2582,24 +2582,24 @@
         <v>35</v>
       </c>
       <c r="B18" s="11">
-        <f>AVERAGE(hps_stats!B26:B28)</f>
+        <f>AVERAGE(hps_stats!B28:B31)</f>
         <v>1</v>
       </c>
       <c r="C18" s="11">
-        <f>AVERAGE(hps_stats!C26:C28)</f>
-        <v>0.99923333333333331</v>
+        <f>AVERAGE(hps_stats!C28:C31)</f>
+        <v>0.99919999999999998</v>
       </c>
       <c r="D18" s="11">
-        <f>AVERAGE(hps_stats!D26:D28)</f>
-        <v>0.57856666666666667</v>
+        <f>AVERAGE(hps_stats!D28:D31)</f>
+        <v>0.49137500000000001</v>
       </c>
       <c r="E18" s="11">
-        <f>AVERAGE(hps_stats!E26:E28)</f>
-        <v>0.68693333333333328</v>
+        <f>AVERAGE(hps_stats!E28:E31)</f>
+        <v>0.62477499999999997</v>
       </c>
       <c r="F18" s="11">
-        <f>AVERAGE(hps_stats!F26:F28)</f>
-        <v>0.49603333333333333</v>
+        <f>AVERAGE(hps_stats!F28:F31)</f>
+        <v>0.41920000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2607,24 +2607,24 @@
         <v>40</v>
       </c>
       <c r="B19" s="13">
-        <f>STDEV(hps_stats!B26:B28)</f>
+        <f>STDEV(hps_stats!B28:B31)</f>
         <v>0</v>
       </c>
       <c r="C19" s="13">
-        <f>STDEV(hps_stats!C26:C28)</f>
-        <v>4.0414518843274387E-4</v>
+        <f>STDEV(hps_stats!C28:C31)</f>
+        <v>3.3665016461207616E-4</v>
       </c>
       <c r="D19" s="13">
-        <f>STDEV(hps_stats!D26:D28)</f>
-        <v>3.70001801797415E-2</v>
+        <f>STDEV(hps_stats!D28:D31)</f>
+        <v>0.1769808534842115</v>
       </c>
       <c r="E19" s="13">
-        <f>STDEV(hps_stats!E26:E28)</f>
-        <v>7.4982153432222309E-2</v>
+        <f>STDEV(hps_stats!E28:E31)</f>
+        <v>0.1385743452687643</v>
       </c>
       <c r="F19" s="13">
-        <f>STDEV(hps_stats!F26:F28)</f>
-        <v>3.0463147134420197E-2</v>
+        <f>STDEV(hps_stats!F28:F31)</f>
+        <v>0.15566667380442514</v>
       </c>
     </row>
   </sheetData>
@@ -3931,10 +3931,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0EB030-7576-8B4F-A3B3-00C30A887AB6}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4148,248 +4148,248 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.2135</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.29620000000000002</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="18">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
         <v>0.90549999999999997</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D12" s="18">
         <v>0.92049999999999998</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E12" s="18">
         <v>0.93110000000000004</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F12" s="24">
         <v>0.7954</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="19">
-        <v>1</v>
-      </c>
-      <c r="C12" s="19">
+      <c r="B13" s="19">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19">
         <v>0.99939999999999996</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D13" s="19">
         <v>0.81679999999999997</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E13" s="19">
         <v>0.84309999999999996</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F13" s="26">
         <v>0.6744</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="18">
-        <v>1</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18">
         <v>0.99890000000000001</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D14" s="18">
         <v>0.84850000000000003</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E14" s="18">
         <v>0.92190000000000005</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F14" s="24">
         <v>0.76639999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="19">
-        <v>1</v>
-      </c>
-      <c r="C14" s="19">
-        <v>0.99939999999999996</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0.83179999999999998</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="F14" s="26">
-        <v>0.69369999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="19">
         <v>1</v>
       </c>
       <c r="C15" s="19">
-        <v>0.99760000000000004</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="D15" s="19">
-        <v>0.80579999999999996</v>
+        <v>0.83179999999999998</v>
       </c>
       <c r="E15" s="19">
-        <v>0.90069999999999995</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="F15" s="26">
-        <v>0.76980000000000004</v>
+        <v>0.69369999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="18">
         <v>1</v>
       </c>
       <c r="C16" s="18">
-        <v>0.99839999999999995</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="D16" s="18">
-        <v>0.67720000000000002</v>
+        <v>0.2646</v>
       </c>
       <c r="E16" s="18">
-        <v>0.6885</v>
+        <v>0.30009999999999998</v>
       </c>
       <c r="F16" s="24">
-        <v>0.62329999999999997</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="19">
         <v>1</v>
       </c>
       <c r="C17" s="19">
-        <v>0.99890000000000001</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="D17" s="19">
-        <v>0.82940000000000003</v>
+        <v>0.80579999999999996</v>
       </c>
       <c r="E17" s="19">
-        <v>0.85670000000000002</v>
+        <v>0.90069999999999995</v>
       </c>
       <c r="F17" s="26">
-        <v>0.75370000000000004</v>
+        <v>0.76980000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="18">
         <v>1</v>
       </c>
       <c r="C18" s="18">
-        <v>0.99960000000000004</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="D18" s="18">
-        <v>0.49220000000000003</v>
+        <v>0.67720000000000002</v>
       </c>
       <c r="E18" s="18">
-        <v>0.55359999999999998</v>
+        <v>0.6885</v>
       </c>
       <c r="F18" s="24">
-        <v>0.42609999999999998</v>
+        <v>0.62329999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="19">
         <v>1</v>
       </c>
       <c r="C19" s="19">
-        <v>0.99970000000000003</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="D19" s="19">
-        <v>0.55249999999999999</v>
+        <v>0.82940000000000003</v>
       </c>
       <c r="E19" s="19">
-        <v>0.57040000000000002</v>
+        <v>0.85670000000000002</v>
       </c>
       <c r="F19" s="26">
-        <v>0.4602</v>
+        <v>0.75370000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="18">
         <v>1</v>
       </c>
       <c r="C20" s="18">
-        <v>0.99950000000000006</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="D20" s="18">
-        <v>0.82340000000000002</v>
+        <v>0.49220000000000003</v>
       </c>
       <c r="E20" s="18">
-        <v>0.85819999999999996</v>
+        <v>0.55359999999999998</v>
       </c>
       <c r="F20" s="24">
-        <v>0.72499999999999998</v>
+        <v>0.42609999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="19">
         <v>1</v>
       </c>
       <c r="C21" s="19">
-        <v>0.99950000000000006</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="D21" s="19">
-        <v>0.8538</v>
+        <v>0.55249999999999999</v>
       </c>
       <c r="E21" s="19">
-        <v>0.88249999999999995</v>
+        <v>0.57040000000000002</v>
       </c>
       <c r="F21" s="26">
-        <v>0.71819999999999995</v>
+        <v>0.4602</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="18">
         <v>1</v>
       </c>
       <c r="C22" s="18">
-        <v>0.99980000000000002</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="D22" s="18">
-        <v>0.81610000000000005</v>
+        <v>0.82340000000000002</v>
       </c>
       <c r="E22" s="18">
-        <v>0.88749999999999996</v>
+        <v>0.85819999999999996</v>
       </c>
       <c r="F22" s="24">
-        <v>0.51429999999999998</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="19">
         <v>1</v>
@@ -4398,113 +4398,173 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="D23" s="19">
-        <v>0.56420000000000003</v>
+        <v>0.8538</v>
       </c>
       <c r="E23" s="19">
-        <v>0.60140000000000005</v>
+        <v>0.88249999999999995</v>
       </c>
       <c r="F23" s="26">
-        <v>0.47660000000000002</v>
+        <v>0.71819999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="18">
         <v>1</v>
       </c>
       <c r="C24" s="18">
-        <v>0.99950000000000006</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="D24" s="18">
-        <v>0.87339999999999995</v>
+        <v>0.81610000000000005</v>
       </c>
       <c r="E24" s="18">
-        <v>0.91759999999999997</v>
+        <v>0.88749999999999996</v>
       </c>
       <c r="F24" s="24">
-        <v>0.72250000000000003</v>
+        <v>0.51429999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="19">
         <v>1</v>
       </c>
       <c r="C25" s="19">
-        <v>0.99939999999999996</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="D25" s="19">
-        <v>0.77139999999999997</v>
+        <v>0.56420000000000003</v>
       </c>
       <c r="E25" s="19">
-        <v>0.79830000000000001</v>
+        <v>0.60140000000000005</v>
       </c>
       <c r="F25" s="26">
-        <v>0.69499999999999995</v>
+        <v>0.47660000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="18">
         <v>1</v>
       </c>
       <c r="C26" s="18">
-        <v>0.99929999999999997</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="D26" s="18">
-        <v>0.56869999999999998</v>
+        <v>0.87339999999999995</v>
       </c>
       <c r="E26" s="18">
-        <v>0.70489999999999997</v>
+        <v>0.91759999999999997</v>
       </c>
       <c r="F26" s="24">
-        <v>0.495</v>
+        <v>0.72250000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="19">
         <v>1</v>
       </c>
       <c r="C27" s="19">
-        <v>0.99880000000000002</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="D27" s="19">
-        <v>0.61950000000000005</v>
+        <v>0.77139999999999997</v>
       </c>
       <c r="E27" s="19">
-        <v>0.75129999999999997</v>
+        <v>0.79830000000000001</v>
       </c>
       <c r="F27" s="26">
-        <v>0.52700000000000002</v>
+        <v>0.69499999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="18">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0.56869999999999998</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0.70489999999999997</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
+      <c r="C29" s="19">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.61950000000000005</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0.75129999999999997</v>
+      </c>
+      <c r="F29" s="26">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18">
-        <v>1</v>
-      </c>
-      <c r="C28" s="18">
+      <c r="B30" s="18">
+        <v>1</v>
+      </c>
+      <c r="C30" s="18">
         <v>0.99960000000000004</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D30" s="18">
         <v>0.54749999999999999</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E30" s="18">
         <v>0.60460000000000003</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F30" s="24">
         <v>0.46610000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="28">
+        <v>1</v>
+      </c>
+      <c r="C31" s="28">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D31" s="28">
+        <v>0.2298</v>
+      </c>
+      <c r="E31" s="28">
+        <v>0.43830000000000002</v>
+      </c>
+      <c r="F31" s="29">
+        <v>0.18870000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4635,7 +4695,7 @@
       </c>
       <c r="G6" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!C18,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!C19,"0,000")&amp;""</f>
-        <v>0,989 ± 0,021</v>
+        <v>0,990 ± 0,020</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="33" t="s">
@@ -4656,7 +4716,7 @@
       </c>
       <c r="N6" s="9" t="str">
         <f>""&amp;TEXT('General stats'!C18,"0,000")&amp;" ± "&amp;TEXT('General stats'!C19,"0,000")&amp;""</f>
-        <v>0,992 ± 0,021</v>
+        <v>0,993 ± 0,020</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -4678,7 +4738,7 @@
       </c>
       <c r="G7" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!D18,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!D19,"0,000")&amp;""</f>
-        <v>0,544 ± 0,110</v>
+        <v>0,511 ± 0,147</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="33" t="s">
@@ -4699,7 +4759,7 @@
       </c>
       <c r="N7" s="9" t="str">
         <f>""&amp;TEXT('General stats'!D18,"0,000")&amp;" ± "&amp;TEXT('General stats'!D19,"0,000")&amp;""</f>
-        <v>0,671 ± 0,157</v>
+        <v>0,627 ± 0,199</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -4721,7 +4781,7 @@
       </c>
       <c r="G8" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!E18,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!E19,"0,000")&amp;""</f>
-        <v>0,643 ± 0,097</v>
+        <v>0,608 ± 0,143</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="35" t="s">
@@ -4742,7 +4802,7 @@
       </c>
       <c r="N8" s="9" t="str">
         <f>""&amp;TEXT('General stats'!E18,"0,000")&amp;" ± "&amp;TEXT('General stats'!E19,"0,000")&amp;""</f>
-        <v>0,738 ± 0,137</v>
+        <v>0,698 ± 0,178</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -4764,7 +4824,7 @@
       </c>
       <c r="G9" s="9" t="str">
         <f>""&amp;TEXT('Stats Allemande'!F18,"0,000")&amp;" ± "&amp;TEXT('Stats Allemande'!F19,"0,000")&amp;""</f>
-        <v>0,524 ± 0,109</v>
+        <v>0,491 ± 0,146</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="33" t="s">
@@ -4785,7 +4845,7 @@
       </c>
       <c r="N9" s="9" t="str">
         <f>""&amp;TEXT('General stats'!F18,"0,000")&amp;" ± "&amp;TEXT('General stats'!F19,"0,000")&amp;""</f>
-        <v>0,593 ± 0,130</v>
+        <v>0,555 ± 0,171</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -4890,7 +4950,7 @@
       </c>
       <c r="G14" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!C18,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!C19,"0,000")&amp;""</f>
-        <v>0,989 ± 0,031</v>
+        <v>0,990 ± 0,030</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
@@ -4912,7 +4972,7 @@
       </c>
       <c r="G15" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!D18,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!D19,"0,000")&amp;""</f>
-        <v>0,753 ± 0,146</v>
+        <v>0,704 ± 0,207</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -4934,7 +4994,7 @@
       </c>
       <c r="G16" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!E18,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!E19,"0,000")&amp;""</f>
-        <v>0,791 ± 0,148</v>
+        <v>0,742 ± 0,209</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="15" t="s">
@@ -4969,7 +5029,7 @@
       </c>
       <c r="G17" s="9" t="str">
         <f>""&amp;TEXT('Stats Syrinx'!F18,"0,000")&amp;" ± "&amp;TEXT('Stats Syrinx'!F19,"0,000")&amp;""</f>
-        <v>0,663 ± 0,136</v>
+        <v>0,620 ± 0,186</v>
       </c>
       <c r="K17" s="40">
         <f>'General stats'!E3-'General stats'!D3</f>
@@ -4985,7 +5045,7 @@
       </c>
       <c r="N17" s="40">
         <f>'General stats'!E18-'General stats'!D18</f>
-        <v>6.695185185185204E-2</v>
+        <v>7.1146666666666913E-2</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
@@ -5207,7 +5267,7 @@
       </c>
       <c r="G31" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!D18,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!D19,"0,000")&amp;""</f>
-        <v>0,579 ± 0,037</v>
+        <v>0,491 ± 0,177</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
@@ -5229,7 +5289,7 @@
       </c>
       <c r="G32" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!E18,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!E19,"0,000")&amp;""</f>
-        <v>0,687 ± 0,075</v>
+        <v>0,625 ± 0,139</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
@@ -5251,7 +5311,7 @@
       </c>
       <c r="G33" s="9" t="str">
         <f>""&amp;TEXT('Stats Sequenza'!F18,"0,000")&amp;" ± "&amp;TEXT('Stats Sequenza'!F19,"0,000")&amp;""</f>
-        <v>0,496 ± 0,030</v>
+        <v>0,419 ± 0,156</v>
       </c>
     </row>
   </sheetData>
@@ -5575,24 +5635,24 @@
         <v>35</v>
       </c>
       <c r="B18" s="11">
-        <f>AVERAGE(hps_stats!B2:B28)</f>
+        <f>AVERAGE(hps_stats!B2:B31)</f>
         <v>1</v>
       </c>
       <c r="C18" s="11">
-        <f>AVERAGE(hps_stats!C2:C28)</f>
-        <v>0.99234074074074108</v>
+        <f>AVERAGE(hps_stats!C2:C31)</f>
+        <v>0.99299000000000026</v>
       </c>
       <c r="D18" s="11">
-        <f>AVERAGE(hps_stats!D2:D28)</f>
-        <v>0.67060370370370359</v>
+        <f>AVERAGE(hps_stats!D2:D31)</f>
+        <v>0.62713999999999992</v>
       </c>
       <c r="E18" s="11">
-        <f>AVERAGE(hps_stats!E2:E28)</f>
-        <v>0.73755555555555563</v>
+        <f>AVERAGE(hps_stats!E2:E31)</f>
+        <v>0.69828666666666683</v>
       </c>
       <c r="F18" s="11">
-        <f>AVERAGE(hps_stats!F2:F28)</f>
-        <v>0.59333333333333327</v>
+        <f>AVERAGE(hps_stats!F2:F31)</f>
+        <v>0.55457000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -5600,24 +5660,24 @@
         <v>40</v>
       </c>
       <c r="B19" s="13">
-        <f>STDEV(hps_stats!B2:B28)</f>
+        <f>STDEV(hps_stats!B2:B31)</f>
         <v>0</v>
       </c>
       <c r="C19" s="13">
-        <f>STDEV(hps_stats!C2:C28)</f>
-        <v>2.1444925152931057E-2</v>
+        <f>STDEV(hps_stats!C2:C31)</f>
+        <v>2.0402203227880181E-2</v>
       </c>
       <c r="D19" s="13">
-        <f>STDEV(hps_stats!D2:D28)</f>
-        <v>0.15712702230870843</v>
+        <f>STDEV(hps_stats!D2:D31)</f>
+        <v>0.19942411330006568</v>
       </c>
       <c r="E19" s="13">
-        <f>STDEV(hps_stats!E2:E28)</f>
-        <v>0.13699286430976945</v>
+        <f>STDEV(hps_stats!E2:E31)</f>
+        <v>0.17786063651912501</v>
       </c>
       <c r="F19" s="13">
-        <f>STDEV(hps_stats!F2:F28)</f>
-        <v>0.12994700695046657</v>
+        <f>STDEV(hps_stats!F2:F31)</f>
+        <v>0.17079856486112732</v>
       </c>
     </row>
   </sheetData>
@@ -5917,24 +5977,24 @@
         <v>35</v>
       </c>
       <c r="B18" s="11">
-        <f>AVERAGE(hps_stats!B2:B10)</f>
+        <f>AVERAGE(hps_stats!B2:B11)</f>
         <v>1</v>
       </c>
       <c r="C18" s="11">
-        <f>AVERAGE(hps_stats!C2:C10)</f>
-        <v>0.98898888888888892</v>
+        <f>AVERAGE(hps_stats!C2:C11)</f>
+        <v>0.98992000000000002</v>
       </c>
       <c r="D18" s="11">
-        <f>AVERAGE(hps_stats!D2:D10)</f>
-        <v>0.5437333333333334</v>
+        <f>AVERAGE(hps_stats!D2:D11)</f>
+        <v>0.51071</v>
       </c>
       <c r="E18" s="11">
-        <f>AVERAGE(hps_stats!E2:E10)</f>
-        <v>0.64318888888888892</v>
+        <f>AVERAGE(hps_stats!E2:E11)</f>
+        <v>0.60848999999999998</v>
       </c>
       <c r="F18" s="11">
-        <f>AVERAGE(hps_stats!F2:F10)</f>
-        <v>0.52414444444444441</v>
+        <f>AVERAGE(hps_stats!F2:F11)</f>
+        <v>0.49112999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -5942,24 +6002,24 @@
         <v>40</v>
       </c>
       <c r="B19" s="13">
-        <f>STDEV(hps_stats!B2:B10)</f>
+        <f>STDEV(hps_stats!B2:B11)</f>
         <v>0</v>
       </c>
       <c r="C19" s="13">
-        <f>STDEV(hps_stats!C2:C10)</f>
-        <v>2.0929312246490826E-2</v>
+        <f>STDEV(hps_stats!C2:C11)</f>
+        <v>1.9950817304338959E-2</v>
       </c>
       <c r="D19" s="13">
-        <f>STDEV(hps_stats!D2:D10)</f>
-        <v>0.11036550638673318</v>
+        <f>STDEV(hps_stats!D2:D11)</f>
+        <v>0.14741966136019849</v>
       </c>
       <c r="E19" s="13">
-        <f>STDEV(hps_stats!E2:E10)</f>
-        <v>9.6995869041475322E-2</v>
+        <f>STDEV(hps_stats!E2:E11)</f>
+        <v>0.14283897266191403</v>
       </c>
       <c r="F19" s="13">
-        <f>STDEV(hps_stats!F2:F10)</f>
-        <v>0.10897445929105501</v>
+        <f>STDEV(hps_stats!F2:F11)</f>
+        <v>0.14647687758368794</v>
       </c>
     </row>
   </sheetData>
@@ -6259,24 +6319,24 @@
         <v>35</v>
       </c>
       <c r="B18" s="11">
-        <f>AVERAGE(hps_stats!B11:B19)</f>
+        <f>AVERAGE(hps_stats!B12:B21)</f>
         <v>1</v>
       </c>
       <c r="C18" s="11">
-        <f>AVERAGE(hps_stats!C11:C19)</f>
-        <v>0.98860000000000015</v>
+        <f>AVERAGE(hps_stats!C12:C21)</f>
+        <v>0.98965000000000014</v>
       </c>
       <c r="D18" s="11">
-        <f>AVERAGE(hps_stats!D11:D19)</f>
-        <v>0.75274444444444444</v>
+        <f>AVERAGE(hps_stats!D12:D21)</f>
+        <v>0.70392999999999994</v>
       </c>
       <c r="E18" s="11">
-        <f>AVERAGE(hps_stats!E11:E19)</f>
-        <v>0.79100000000000004</v>
+        <f>AVERAGE(hps_stats!E12:E21)</f>
+        <v>0.74191000000000007</v>
       </c>
       <c r="F18" s="11">
-        <f>AVERAGE(hps_stats!F11:F19)</f>
-        <v>0.66255555555555568</v>
+        <f>AVERAGE(hps_stats!F12:F21)</f>
+        <v>0.61973999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -6284,24 +6344,24 @@
         <v>40</v>
       </c>
       <c r="B19" s="13">
-        <f>STDEV(hps_stats!B11:B19)</f>
+        <f>STDEV(hps_stats!B12:B21)</f>
         <v>0</v>
       </c>
       <c r="C19" s="13">
-        <f>STDEV(hps_stats!C11:C19)</f>
-        <v>3.1169536409770368E-2</v>
+        <f>STDEV(hps_stats!C12:C21)</f>
+        <v>2.9573909297066419E-2</v>
       </c>
       <c r="D19" s="13">
-        <f>STDEV(hps_stats!D11:D19)</f>
-        <v>0.14579228469908065</v>
+        <f>STDEV(hps_stats!D12:D21)</f>
+        <v>0.20669344477053739</v>
       </c>
       <c r="E19" s="13">
-        <f>STDEV(hps_stats!E11:E19)</f>
-        <v>0.14798698422496456</v>
+        <f>STDEV(hps_stats!E12:E21)</f>
+        <v>0.20872249226611267</v>
       </c>
       <c r="F19" s="13">
-        <f>STDEV(hps_stats!F11:F19)</f>
-        <v>0.13589989984461981</v>
+        <f>STDEV(hps_stats!F12:F21)</f>
+        <v>0.18640926419515158</v>
       </c>
     </row>
   </sheetData>
@@ -6320,7 +6380,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEFBF5D-F7E6-874D-A701-0615731C356F}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="191" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="191" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -6601,23 +6661,23 @@
         <v>35</v>
       </c>
       <c r="B18" s="11">
-        <f>AVERAGE(hps_stats!B20:B25)</f>
+        <f>AVERAGE(hps_stats!B22:B27)</f>
         <v>1</v>
       </c>
       <c r="C18" s="11">
-        <f>AVERAGE(hps_stats!C20:C25)</f>
+        <f>AVERAGE(hps_stats!C22:C27)</f>
         <v>0.99953333333333338</v>
       </c>
       <c r="D18" s="11">
-        <f>AVERAGE(hps_stats!D20:D25)</f>
+        <f>AVERAGE(hps_stats!D22:D27)</f>
         <v>0.78371666666666673</v>
       </c>
       <c r="E18" s="11">
-        <f>AVERAGE(hps_stats!E20:E25)</f>
+        <f>AVERAGE(hps_stats!E22:E27)</f>
         <v>0.82425000000000004</v>
       </c>
       <c r="F18" s="11">
-        <f>AVERAGE(hps_stats!F20:F25)</f>
+        <f>AVERAGE(hps_stats!F22:F27)</f>
         <v>0.64193333333333336</v>
       </c>
     </row>
@@ -6626,23 +6686,23 @@
         <v>40</v>
       </c>
       <c r="B19" s="13">
-        <f>STDEV(hps_stats!B20:B25)</f>
+        <f>STDEV(hps_stats!B22:B27)</f>
         <v>0</v>
       </c>
       <c r="C19" s="13">
-        <f>STDEV(hps_stats!C20:C25)</f>
+        <f>STDEV(hps_stats!C22:C27)</f>
         <v>1.3662601021280127E-4</v>
       </c>
       <c r="D19" s="13">
-        <f>STDEV(hps_stats!D20:D25)</f>
+        <f>STDEV(hps_stats!D22:D27)</f>
         <v>0.1130641307695176</v>
       </c>
       <c r="E19" s="13">
-        <f>STDEV(hps_stats!E20:E25)</f>
+        <f>STDEV(hps_stats!E22:E27)</f>
         <v>0.11627207317322565</v>
       </c>
       <c r="F19" s="13">
-        <f>STDEV(hps_stats!F20:F25)</f>
+        <f>STDEV(hps_stats!F22:F27)</f>
         <v>0.11458543828369594</v>
       </c>
     </row>
